--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能-JH_00006.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能-JH_00006.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>日期</t>
   </si>
@@ -176,15 +176,15 @@
   </si>
   <si>
     <t>动量M
-(2周内上涨天数达到25%)</t>
+(15个交易日内上涨天数达到25%)</t>
   </si>
   <si>
     <t>交易量V
-(2周内上涨交易量达到25%)</t>
+(15个交易日内上涨交易量达到25%)</t>
   </si>
   <si>
     <t>价格P
-(2内涨幅达到20%)</t>
+(15个交易日内涨幅达到20%)</t>
   </si>
   <si>
     <r>
@@ -241,6 +241,9 @@
     <t>涨幅2</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
 </sst>
@@ -251,12 +254,12 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,8 +299,22 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,15 +327,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -341,13 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -356,25 +374,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,9 +412,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,26 +434,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,7 +462,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,13 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +519,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,13 +663,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,115 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,10 +725,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -722,10 +738,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -774,21 +790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -815,6 +816,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -834,152 +850,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,10 +1032,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,19 +1047,19 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,13 +1077,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,13 +1095,16 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,16 +1116,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3234,14 +3262,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AL481"/>
+  <dimension ref="A1:AL479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3298,46 +3326,46 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="22" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="25" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="19" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AH1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36" t="s">
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="43" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3352,34 +3380,34 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="17"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="18"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:38">
       <c r="A3" s="6"/>
@@ -3404,58 +3432,58 @@
       <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="23" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="26" t="s">
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27" t="s">
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="19" t="s">
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="17"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="18"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:38">
       <c r="A4" s="6"/>
@@ -3466,60 +3494,60 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="28" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="V4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="X4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="Y4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="31" t="s">
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AF4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="17"/>
-    </row>
-    <row r="5" ht="53" spans="1:38">
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="18"/>
+    </row>
+    <row r="5" ht="71" spans="1:38">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3528,62 +3556,62 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="31" t="s">
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="35" t="s">
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AJ5" s="36" t="s">
+      <c r="AJ5" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AK5" s="40" t="s">
+      <c r="AK5" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AL5" s="17"/>
+      <c r="AL5" s="18"/>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="9">
@@ -3613,15 +3641,19 @@
       <c r="I6" s="10">
         <v>85.91</v>
       </c>
-      <c r="J6" s="17">
-        <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6:J12" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="19">
         <v>0.0297</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -3635,18 +3667,23 @@
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
+      <c r="X6" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="33">
+        <f>$I6/$I$6</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
       <c r="AC6" s="11">
         <f>D6-E6</f>
         <v>1.02</v>
       </c>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
       <c r="AG6" s="11">
         <v>15.5</v>
       </c>
@@ -3658,16 +3695,16 @@
         <f>($AG6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
         <v>-338</v>
       </c>
-      <c r="AJ6" s="37">
+      <c r="AJ6" s="39">
         <f>($B6-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
         <v>-0.000587889476778458</v>
       </c>
-      <c r="AK6" s="18">
+      <c r="AK6" s="19">
         <f>($B6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
         <v>-0.0110529377545085</v>
       </c>
-      <c r="AL6" s="17" t="s">
-        <v>49</v>
+      <c r="AL6" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -3698,16 +3735,20 @@
       <c r="I7" s="11">
         <v>88.46</v>
       </c>
-      <c r="J7" s="19">
-        <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K7" s="18">
-        <f>(B7-B6)/B6</f>
+      <c r="K7" s="19">
+        <f t="shared" ref="K7:K12" si="1">(B7-B6)/B6</f>
         <v>-0.00705882352941182</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3721,19 +3762,24 @@
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
+      <c r="X7" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="33">
+        <f t="shared" ref="Y7:Y16" si="2">$I7/$I$6</f>
+        <v>1.02968222558491</v>
+      </c>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
       <c r="AC7" s="11">
         <f>D7-E7</f>
         <v>0.59</v>
       </c>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="38">
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="40">
         <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AG6)</f>
         <v>15.5</v>
       </c>
@@ -3745,16 +3791,16 @@
         <f>($AG7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
         <v>-338</v>
       </c>
-      <c r="AJ7" s="37">
+      <c r="AJ7" s="39">
         <f>($B7-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0076425631981189</v>
       </c>
-      <c r="AK7" s="18">
+      <c r="AK7" s="19">
         <f>($B7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0180337405468297</v>
       </c>
-      <c r="AL7" s="17" t="s">
-        <v>49</v>
+      <c r="AL7" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -3785,16 +3831,20 @@
       <c r="I8" s="11">
         <v>87.83</v>
       </c>
-      <c r="J8" s="17">
-        <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
+      <c r="J8" s="18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="18">
-        <f>(B8-B7)/B7</f>
+      <c r="K8" s="19">
+        <f t="shared" si="1"/>
         <v>0.0396919431279622</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -3802,23 +3852,52 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="U8" s="11" t="str">
+        <f>IF(B8&lt;G8,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="38"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="11"/>
+      <c r="X8" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="33">
+        <f t="shared" si="2"/>
+        <v>1.02234896985217</v>
+      </c>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="11">
+        <f t="shared" ref="AC8:AC16" si="3">D8-E8</f>
+        <v>1.72</v>
+      </c>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="40">
+        <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AG7)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>($AG8-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI8" s="3">
+        <f>($AG8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ8" s="39">
+        <f>($B8-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>0.0317460317460317</v>
+      </c>
+      <c r="AK8" s="19">
+        <f>($B8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>0.0209424083769633</v>
+      </c>
+      <c r="AL8" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="9">
@@ -3848,16 +3927,20 @@
       <c r="I9" s="11">
         <v>91.32</v>
       </c>
-      <c r="J9" s="19">
-        <f>IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K9" s="18">
-        <f>(B9-B8)/B8</f>
+      <c r="K9" s="19">
+        <f t="shared" si="1"/>
         <v>-0.0136752136752138</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -3865,23 +3948,52 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
+      <c r="U9" s="11" t="str">
+        <f>IF(B9&lt;G9,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="38"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="11"/>
+      <c r="X9" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="33">
+        <f t="shared" si="2"/>
+        <v>1.06297287859388</v>
+      </c>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="11">
+        <f t="shared" si="3"/>
+        <v>0.529999999999998</v>
+      </c>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="40">
+        <f>IF(AND(H9-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,H9&gt;H8),H9,AG8)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH9" s="3">
+        <f>($AG9-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10008,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI9" s="3">
+        <f>($AG9-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10008,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ9" s="39">
+        <f>($B9-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>0.0176366843033508</v>
+      </c>
+      <c r="AK9" s="19">
+        <f>($B9-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>0.00698080279232097</v>
+      </c>
+      <c r="AL9" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="9">
@@ -3896,7 +4008,7 @@
       <c r="D10" s="10">
         <v>18</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <v>17.13</v>
       </c>
       <c r="F10" s="10">
@@ -3911,40 +4023,79 @@
       <c r="I10" s="11">
         <v>90.07</v>
       </c>
-      <c r="J10" s="19">
-        <f>IF(B10&gt;(D10-(D10-E10)/2),1,-1)</f>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K10" s="18">
-        <f>(B10-B9)/B9</f>
+      <c r="K10" s="19">
+        <f t="shared" si="1"/>
         <v>-0.00751010976314264</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="19">
+        <f>COUNTIF(K6:K10,"&gt;0")/5</f>
+        <v>0.4</v>
+      </c>
       <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="P10" s="19">
+        <f>COUNTIF(J6:J10,"&gt;0")/5</f>
+        <v>0.4</v>
+      </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="U10" s="11" t="str">
+        <f>IF(B10&lt;G10,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="38"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="11"/>
+      <c r="X10" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="33">
+        <f t="shared" si="2"/>
+        <v>1.04842276801304</v>
+      </c>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="11">
+        <f t="shared" si="3"/>
+        <v>0.870000000000001</v>
+      </c>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="40">
+        <f>IF(AND(H10-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,H10&gt;H9),H10,AG9)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>($AG10-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10009,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI10" s="3">
+        <f>($AG10-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10009,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ10" s="39">
+        <f>($B10-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
+        <v>0.00999412110523211</v>
+      </c>
+      <c r="AK10" s="19">
+        <f>($B10-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
+        <v>-0.000581733566026851</v>
+      </c>
+      <c r="AL10" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="9">
@@ -3959,13 +4110,13 @@
       <c r="D11" s="10">
         <v>17.06</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="12">
         <v>16.1</v>
       </c>
       <c r="F11" s="10">
         <v>31.13</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="12">
         <v>16.62</v>
       </c>
       <c r="H11" s="10">
@@ -3974,16 +4125,20 @@
       <c r="I11" s="11">
         <v>89.39</v>
       </c>
-      <c r="J11" s="19">
-        <f>IF(B11&gt;(D11-(D11-E11)/2),1,-1)</f>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K11" s="20">
-        <f>(B11-B10)/B10</f>
+      <c r="K11" s="21">
+        <f t="shared" si="1"/>
         <v>-0.059371362048894</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -3991,23 +4146,56 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="38"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="11"/>
+      <c r="U11" s="20" t="str">
+        <f>IF(B11&lt;G11,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="V11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="33">
+        <f t="shared" si="2"/>
+        <v>1.04050750785706</v>
+      </c>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="11">
+        <f t="shared" si="3"/>
+        <v>0.959999999999997</v>
+      </c>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="40">
+        <f>IF(AND(H11-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,H11&gt;H10),H11,AG10)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH11" s="3">
+        <f>($AG11-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10010,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI11" s="3">
+        <f>($AG11-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10010,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ11" s="41">
+        <f>($B11-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
+        <v>-0.0499706055261612</v>
+      </c>
+      <c r="AK11" s="21">
+        <f>($B11-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
+        <v>-0.0599185573007563</v>
+      </c>
+      <c r="AL11" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="9">
@@ -4022,13 +4210,13 @@
       <c r="D12" s="10">
         <v>16.25</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="12">
         <v>15.67</v>
       </c>
       <c r="F12" s="10">
         <v>20.04</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="12">
         <v>16.56</v>
       </c>
       <c r="H12" s="10">
@@ -4037,16 +4225,20 @@
       <c r="I12" s="11">
         <v>84.08</v>
       </c>
-      <c r="J12" s="17">
-        <f>IF(B12&gt;(D12-(D12-E12)/2),1,-1)</f>
+      <c r="J12" s="18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="21">
-        <f>(B12-B11)/B11</f>
+      <c r="K12" s="22">
+        <f t="shared" si="1"/>
         <v>-0.00680693069306927</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -4054,40 +4246,97 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="U12" s="20" t="str">
+        <f>IF(B12&lt;G12,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="38"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="11"/>
+      <c r="W12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="33">
+        <f t="shared" si="2"/>
+        <v>0.97869863810965</v>
+      </c>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="11">
+        <f t="shared" si="3"/>
+        <v>0.58</v>
+      </c>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="40">
+        <f>IF(AND(H12-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,H12&gt;H11),H12,AG11)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH12" s="3">
+        <f>($AG12-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10011,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI12" s="3">
+        <f>($AG12-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10011,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ12" s="42">
+        <f>($B12-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
+        <v>-0.0564373897707231</v>
+      </c>
+      <c r="AK12" s="21">
+        <f>($B12-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
+        <v>-0.0663176265270506</v>
+      </c>
+      <c r="AL12" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="9">
         <v>44552</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="B13" s="10">
+        <v>15.93</v>
+      </c>
+      <c r="C13" s="10">
+        <v>16.06</v>
+      </c>
+      <c r="D13" s="10">
+        <v>16.19</v>
+      </c>
+      <c r="E13" s="10">
+        <v>15.83</v>
+      </c>
+      <c r="F13" s="10">
+        <v>11.9</v>
+      </c>
+      <c r="G13" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="H13" s="12">
+        <v>15.98</v>
+      </c>
+      <c r="I13" s="11">
+        <v>83.51</v>
+      </c>
+      <c r="J13" s="20">
+        <f>IF(B13&gt;(D13-(D13-E13)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K13" s="22">
+        <f>(B13-B12)/B12</f>
+        <v>-0.00747663551401875</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -4095,40 +4344,97 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
+      <c r="U13" s="20" t="str">
+        <f>IF(B13&lt;G13,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="38"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="11"/>
+      <c r="W13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="33">
+        <f t="shared" si="2"/>
+        <v>0.972063787684787</v>
+      </c>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="11">
+        <f t="shared" si="3"/>
+        <v>0.360000000000001</v>
+      </c>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="40">
+        <f>IF(AND(H13-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,H13&gt;H12),H13,AG12)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH13" s="3">
+        <f>($AG13-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10012,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI13" s="3">
+        <f>($AG13-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10012,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ13" s="42">
+        <f>($B13-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
+        <v>-0.0634920634920636</v>
+      </c>
+      <c r="AK13" s="21">
+        <f>($B13-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
+        <v>-0.0732984293193718</v>
+      </c>
+      <c r="AL13" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="9">
         <v>44553</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="B14" s="10">
+        <v>16.43</v>
+      </c>
+      <c r="C14" s="10">
+        <v>15.94</v>
+      </c>
+      <c r="D14" s="10">
+        <v>16.49</v>
+      </c>
+      <c r="E14" s="10">
+        <v>15.83</v>
+      </c>
+      <c r="F14" s="10">
+        <v>23.97</v>
+      </c>
+      <c r="G14" s="12">
+        <v>16.49</v>
+      </c>
+      <c r="H14" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="I14" s="11">
+        <v>82.89</v>
+      </c>
+      <c r="J14" s="18">
+        <f>IF(B14&gt;(D14-(D14-E14)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="22">
+        <f>(B14-B13)/B13</f>
+        <v>0.0313873195229127</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -4136,81 +4442,201 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+      <c r="U14" s="20" t="str">
+        <f>IF(B14&lt;G14,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="38"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="11"/>
+      <c r="W14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="33">
+        <f t="shared" si="2"/>
+        <v>0.96484693283669</v>
+      </c>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="11">
+        <f t="shared" si="3"/>
+        <v>0.659999999999998</v>
+      </c>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="40">
+        <f>IF(AND(H14-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10011,6,FALSE)&gt;0,H14&gt;H13),H14,AG13)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH14" s="3">
+        <f>($AG14-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10013,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI14" s="3">
+        <f>($AG14-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10013,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ14" s="39">
+        <f>($B14-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
+        <v>-0.0340975896531453</v>
+      </c>
+      <c r="AK14" s="19">
+        <f>($B14-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
+        <v>-0.0442117510180338</v>
+      </c>
+      <c r="AL14" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="9">
         <v>44554</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="B15" s="10">
+        <v>16.1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16.43</v>
+      </c>
+      <c r="D15" s="10">
+        <v>16.72</v>
+      </c>
+      <c r="E15" s="10">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10">
+        <v>22.24</v>
+      </c>
+      <c r="G15" s="12">
+        <v>16.46</v>
+      </c>
+      <c r="H15" s="10">
+        <v>16</v>
+      </c>
+      <c r="I15" s="11">
+        <v>85.49</v>
+      </c>
+      <c r="J15" s="20">
+        <f>IF(B15&gt;(D15-(D15-E15)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K15" s="22">
+        <f>(B15-B14)/B14</f>
+        <v>-0.0200852099817406</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="O15" s="19">
+        <f>COUNTIF(K6:K15,"&gt;0")/10</f>
+        <v>0.3</v>
+      </c>
       <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="19">
+        <f>COUNTIF(J6:J15,"&gt;0")/10</f>
+        <v>0.4</v>
+      </c>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
+      <c r="U15" s="20" t="str">
+        <f>IF(B15&lt;G15,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="38"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="11"/>
+      <c r="W15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="33">
+        <f t="shared" si="2"/>
+        <v>0.995111162844838</v>
+      </c>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="11">
+        <f t="shared" si="3"/>
+        <v>0.719999999999999</v>
+      </c>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="40">
+        <f>IF(AND(H15-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10012,6,FALSE)&gt;0,H15&gt;H14),H15,AG14)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH15" s="3">
+        <f>($AG15-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10014,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI15" s="3">
+        <f>($AG15-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10014,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ15" s="41">
+        <f>($B15-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
+        <v>-0.0534979423868313</v>
+      </c>
+      <c r="AK15" s="21">
+        <f>($B15-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
+        <v>-0.0634089586969168</v>
+      </c>
+      <c r="AL15" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="9">
-        <v>44555</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+        <v>44557</v>
+      </c>
+      <c r="B16" s="10">
+        <v>15.75</v>
+      </c>
+      <c r="C16" s="10">
+        <v>15.98</v>
+      </c>
+      <c r="D16" s="10">
+        <v>16.26</v>
+      </c>
+      <c r="E16" s="10">
+        <v>15.71</v>
+      </c>
+      <c r="F16" s="10">
+        <v>16.87</v>
+      </c>
+      <c r="G16" s="12">
+        <v>16.39</v>
+      </c>
+      <c r="H16" s="12">
+        <v>15.99</v>
+      </c>
+      <c r="I16" s="11">
+        <v>83.77</v>
+      </c>
+      <c r="J16" s="20">
+        <f>IF(B16&gt;(D16-(D16-E16)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K16" s="22">
+        <f>(B16-B15)/B15</f>
+        <v>-0.0217391304347827</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -4218,27 +4644,58 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
+      <c r="U16" s="20" t="str">
+        <f>IF(B16&lt;G16,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="38"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="11"/>
+      <c r="W16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X16" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="33">
+        <f t="shared" si="2"/>
+        <v>0.975090210685601</v>
+      </c>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="11">
+        <f t="shared" si="3"/>
+        <v>0.550000000000001</v>
+      </c>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="40">
+        <f>IF(AND(H16-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10013,6,FALSE)&gt;0,H16&gt;H15),H16,AG15)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH16" s="3">
+        <f>($AG16-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10015,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI16" s="3">
+        <f>($AG16-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10015,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ16" s="41">
+        <f>($B16-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
+        <v>-0.0740740740740742</v>
+      </c>
+      <c r="AK16" s="21">
+        <f>($B16-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
+        <v>-0.0837696335078535</v>
+      </c>
+      <c r="AL16" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="9">
-        <v>44556</v>
+        <v>44558</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4249,7 +4706,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="18"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -4264,33 +4721,33 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="38"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="40"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
       <c r="AL17" s="11"/>
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="9">
-        <v>44557</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+        <v>44559</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="18"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -4305,33 +4762,33 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="38"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="40"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
       <c r="AL18" s="11"/>
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="9">
-        <v>44558</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+        <v>44560</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -4346,22 +4803,22 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="38"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="40"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
       <c r="AL19" s="11"/>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="9">
-        <v>44559</v>
+        <v>44561</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -4372,7 +4829,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="18"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -4387,22 +4844,22 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="38"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="40"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
       <c r="AL20" s="11"/>
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="9">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4413,7 +4870,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -4428,22 +4885,22 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="38"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="40"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
       <c r="AL21" s="11"/>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="9">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4454,7 +4911,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="18"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -4469,22 +4926,22 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="38"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="40"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
       <c r="AL22" s="11"/>
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="9">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4495,7 +4952,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -4510,22 +4967,22 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="38"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="40"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="11"/>
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="9">
-        <v>44563</v>
+        <v>44565</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -4536,7 +4993,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="18"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -4551,22 +5008,22 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="38"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="40"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
       <c r="AL24" s="11"/>
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="9">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4577,7 +5034,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="18"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -4592,22 +5049,22 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="38"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="40"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
       <c r="AL25" s="11"/>
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="9">
-        <v>44565</v>
+        <v>44567</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4618,7 +5075,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="18"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -4633,22 +5090,22 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="38"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="40"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
       <c r="AL26" s="11"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="9">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4659,7 +5116,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="18"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -4674,22 +5131,22 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="38"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="40"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
       <c r="AL27" s="11"/>
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="9">
-        <v>44567</v>
+        <v>44569</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4700,7 +5157,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="18"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -4715,22 +5172,22 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="38"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="40"/>
       <c r="AI28" s="3"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="11"/>
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="9">
-        <v>44568</v>
+        <v>44570</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4741,7 +5198,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="18"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -4756,22 +5213,22 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="38"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="40"/>
       <c r="AI29" s="3"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
       <c r="AL29" s="11"/>
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="9">
-        <v>44569</v>
+        <v>44571</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4782,7 +5239,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="18"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -4797,22 +5254,22 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="38"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="40"/>
       <c r="AI30" s="3"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
       <c r="AL30" s="11"/>
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="9">
-        <v>44570</v>
+        <v>44572</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4823,7 +5280,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="18"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -4838,22 +5295,22 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="38"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="40"/>
       <c r="AI31" s="3"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
       <c r="AL31" s="11"/>
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="9">
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4864,7 +5321,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="18"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -4879,22 +5336,22 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="38"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="40"/>
       <c r="AI32" s="3"/>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
       <c r="AL32" s="11"/>
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="9">
-        <v>44572</v>
+        <v>44574</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4905,7 +5362,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="18"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -4920,22 +5377,22 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="38"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="40"/>
       <c r="AI33" s="3"/>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
       <c r="AL33" s="11"/>
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="9">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4946,7 +5403,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="18"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -4961,22 +5418,22 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="38"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="40"/>
       <c r="AI34" s="3"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
       <c r="AL34" s="11"/>
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="9">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4987,7 +5444,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="18"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -5002,22 +5459,22 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="38"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="40"/>
       <c r="AI35" s="3"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="19"/>
       <c r="AL35" s="11"/>
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="9">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5028,7 +5485,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="18"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -5043,22 +5500,22 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="38"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="40"/>
       <c r="AI36" s="3"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
       <c r="AL36" s="11"/>
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="9">
-        <v>44576</v>
+        <v>44578</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5069,7 +5526,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="18"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -5084,22 +5541,22 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="38"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="40"/>
       <c r="AI37" s="3"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
       <c r="AL37" s="11"/>
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="9">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5110,7 +5567,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="18"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -5125,22 +5582,22 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="38"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="40"/>
       <c r="AI38" s="3"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="11"/>
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="9">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5151,7 +5608,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="18"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -5166,22 +5623,22 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="38"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="40"/>
       <c r="AI39" s="3"/>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="18"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
       <c r="AL39" s="11"/>
     </row>
     <row r="40" spans="1:38">
       <c r="A40" s="9">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5192,7 +5649,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="18"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -5207,22 +5664,22 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="38"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="40"/>
       <c r="AI40" s="3"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
       <c r="AL40" s="11"/>
     </row>
     <row r="41" spans="1:38">
       <c r="A41" s="9">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5233,7 +5690,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="18"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -5248,22 +5705,22 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="38"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="40"/>
       <c r="AI41" s="3"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="19"/>
       <c r="AL41" s="11"/>
     </row>
     <row r="42" spans="1:38">
       <c r="A42" s="9">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5274,7 +5731,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="18"/>
+      <c r="K42" s="19"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -5289,22 +5746,22 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="38"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="40"/>
       <c r="AI42" s="3"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
       <c r="AL42" s="11"/>
     </row>
     <row r="43" spans="1:38">
       <c r="A43" s="9">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5315,7 +5772,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="18"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -5330,22 +5787,22 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="38"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="40"/>
       <c r="AI43" s="3"/>
-      <c r="AJ43" s="18"/>
-      <c r="AK43" s="18"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="19"/>
       <c r="AL43" s="11"/>
     </row>
     <row r="44" spans="1:38">
       <c r="A44" s="9">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5356,7 +5813,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="18"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -5371,22 +5828,22 @@
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="32"/>
-      <c r="AF44" s="32"/>
-      <c r="AG44" s="38"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="34"/>
+      <c r="AG44" s="40"/>
       <c r="AI44" s="3"/>
-      <c r="AJ44" s="18"/>
-      <c r="AK44" s="18"/>
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="19"/>
       <c r="AL44" s="11"/>
     </row>
     <row r="45" spans="1:38">
       <c r="A45" s="9">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5397,7 +5854,7 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="18"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -5412,22 +5869,22 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="32"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="32"/>
-      <c r="AG45" s="38"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="40"/>
       <c r="AI45" s="3"/>
-      <c r="AJ45" s="18"/>
-      <c r="AK45" s="18"/>
+      <c r="AJ45" s="19"/>
+      <c r="AK45" s="19"/>
       <c r="AL45" s="11"/>
     </row>
     <row r="46" spans="1:38">
       <c r="A46" s="9">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5438,7 +5895,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="18"/>
+      <c r="K46" s="19"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -5453,22 +5910,22 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="38"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="40"/>
       <c r="AI46" s="3"/>
-      <c r="AJ46" s="18"/>
-      <c r="AK46" s="18"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="19"/>
       <c r="AL46" s="11"/>
     </row>
     <row r="47" spans="1:38">
       <c r="A47" s="9">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5479,7 +5936,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="18"/>
+      <c r="K47" s="19"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -5494,22 +5951,22 @@
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="38"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="40"/>
       <c r="AI47" s="3"/>
-      <c r="AJ47" s="18"/>
-      <c r="AK47" s="18"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
       <c r="AL47" s="11"/>
     </row>
     <row r="48" spans="1:38">
       <c r="A48" s="9">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5520,7 +5977,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="18"/>
+      <c r="K48" s="19"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -5535,22 +5992,22 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="32"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="38"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="40"/>
       <c r="AI48" s="3"/>
-      <c r="AJ48" s="18"/>
-      <c r="AK48" s="18"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="19"/>
       <c r="AL48" s="11"/>
     </row>
     <row r="49" spans="1:38">
       <c r="A49" s="9">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -5561,7 +6018,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="18"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -5576,22 +6033,22 @@
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="38"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="40"/>
       <c r="AI49" s="3"/>
-      <c r="AJ49" s="18"/>
-      <c r="AK49" s="18"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="19"/>
       <c r="AL49" s="11"/>
     </row>
     <row r="50" spans="1:38">
       <c r="A50" s="9">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -5602,7 +6059,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="18"/>
+      <c r="K50" s="19"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -5617,22 +6074,22 @@
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="38"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="40"/>
       <c r="AI50" s="3"/>
-      <c r="AJ50" s="18"/>
-      <c r="AK50" s="18"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="19"/>
       <c r="AL50" s="11"/>
     </row>
     <row r="51" spans="1:38">
       <c r="A51" s="9">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -5643,7 +6100,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="18"/>
+      <c r="K51" s="19"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -5658,22 +6115,22 @@
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="38"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="40"/>
       <c r="AI51" s="3"/>
-      <c r="AJ51" s="18"/>
-      <c r="AK51" s="18"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="19"/>
       <c r="AL51" s="11"/>
     </row>
     <row r="52" spans="1:38">
       <c r="A52" s="9">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -5684,7 +6141,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="18"/>
+      <c r="K52" s="19"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -5699,22 +6156,22 @@
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="38"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="40"/>
       <c r="AI52" s="3"/>
-      <c r="AJ52" s="18"/>
-      <c r="AK52" s="18"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="19"/>
       <c r="AL52" s="11"/>
     </row>
     <row r="53" spans="1:38">
       <c r="A53" s="9">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5725,7 +6182,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="18"/>
+      <c r="K53" s="19"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
@@ -5740,22 +6197,22 @@
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="32"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="38"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
+      <c r="AD53" s="34"/>
+      <c r="AE53" s="34"/>
+      <c r="AF53" s="34"/>
+      <c r="AG53" s="40"/>
       <c r="AI53" s="3"/>
-      <c r="AJ53" s="18"/>
-      <c r="AK53" s="18"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
       <c r="AL53" s="11"/>
     </row>
     <row r="54" spans="1:38">
       <c r="A54" s="9">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5766,7 +6223,7 @@
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="18"/>
+      <c r="K54" s="19"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -5781,22 +6238,22 @@
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="32"/>
-      <c r="AA54" s="32"/>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="32"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="38"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
+      <c r="AD54" s="34"/>
+      <c r="AE54" s="34"/>
+      <c r="AF54" s="34"/>
+      <c r="AG54" s="40"/>
       <c r="AI54" s="3"/>
-      <c r="AJ54" s="18"/>
-      <c r="AK54" s="18"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
       <c r="AL54" s="11"/>
     </row>
     <row r="55" spans="1:38">
       <c r="A55" s="9">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5807,7 +6264,7 @@
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="18"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -5822,22 +6279,22 @@
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="32"/>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="32"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="32"/>
-      <c r="AE55" s="32"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="38"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="40"/>
       <c r="AI55" s="3"/>
-      <c r="AJ55" s="18"/>
-      <c r="AK55" s="18"/>
+      <c r="AJ55" s="19"/>
+      <c r="AK55" s="19"/>
       <c r="AL55" s="11"/>
     </row>
     <row r="56" spans="1:38">
       <c r="A56" s="9">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -5848,7 +6305,7 @@
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="18"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -5863,22 +6320,22 @@
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="32"/>
-      <c r="AB56" s="32"/>
-      <c r="AC56" s="32"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="32"/>
-      <c r="AF56" s="32"/>
-      <c r="AG56" s="38"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="34"/>
+      <c r="AD56" s="34"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="34"/>
+      <c r="AG56" s="40"/>
       <c r="AI56" s="3"/>
-      <c r="AJ56" s="18"/>
-      <c r="AK56" s="18"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="19"/>
       <c r="AL56" s="11"/>
     </row>
     <row r="57" spans="1:38">
       <c r="A57" s="9">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5889,7 +6346,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="18"/>
+      <c r="K57" s="19"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -5904,22 +6361,22 @@
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="32"/>
-      <c r="AA57" s="32"/>
-      <c r="AB57" s="32"/>
-      <c r="AC57" s="32"/>
-      <c r="AD57" s="32"/>
-      <c r="AE57" s="32"/>
-      <c r="AF57" s="32"/>
-      <c r="AG57" s="38"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="34"/>
+      <c r="AF57" s="34"/>
+      <c r="AG57" s="40"/>
       <c r="AI57" s="3"/>
-      <c r="AJ57" s="18"/>
-      <c r="AK57" s="18"/>
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="19"/>
       <c r="AL57" s="11"/>
     </row>
     <row r="58" spans="1:38">
       <c r="A58" s="9">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -5930,7 +6387,7 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="18"/>
+      <c r="K58" s="19"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -5945,22 +6402,22 @@
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="32"/>
-      <c r="AA58" s="32"/>
-      <c r="AB58" s="32"/>
-      <c r="AC58" s="32"/>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="32"/>
-      <c r="AF58" s="32"/>
-      <c r="AG58" s="38"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="34"/>
+      <c r="AE58" s="34"/>
+      <c r="AF58" s="34"/>
+      <c r="AG58" s="40"/>
       <c r="AI58" s="3"/>
-      <c r="AJ58" s="18"/>
-      <c r="AK58" s="18"/>
+      <c r="AJ58" s="19"/>
+      <c r="AK58" s="19"/>
       <c r="AL58" s="11"/>
     </row>
     <row r="59" spans="1:38">
       <c r="A59" s="9">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5971,7 +6428,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="18"/>
+      <c r="K59" s="19"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -5986,22 +6443,22 @@
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
-      <c r="Z59" s="32"/>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="32"/>
-      <c r="AC59" s="32"/>
-      <c r="AD59" s="32"/>
-      <c r="AE59" s="32"/>
-      <c r="AF59" s="32"/>
-      <c r="AG59" s="38"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
+      <c r="AD59" s="34"/>
+      <c r="AE59" s="34"/>
+      <c r="AF59" s="34"/>
+      <c r="AG59" s="40"/>
       <c r="AI59" s="3"/>
-      <c r="AJ59" s="18"/>
-      <c r="AK59" s="18"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="19"/>
       <c r="AL59" s="11"/>
     </row>
     <row r="60" spans="1:38">
       <c r="A60" s="9">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -6012,7 +6469,7 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="18"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
@@ -6027,22 +6484,22 @@
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="32"/>
-      <c r="AB60" s="32"/>
-      <c r="AC60" s="32"/>
-      <c r="AD60" s="32"/>
-      <c r="AE60" s="32"/>
-      <c r="AF60" s="32"/>
-      <c r="AG60" s="38"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="34"/>
+      <c r="AD60" s="34"/>
+      <c r="AE60" s="34"/>
+      <c r="AF60" s="34"/>
+      <c r="AG60" s="40"/>
       <c r="AI60" s="3"/>
-      <c r="AJ60" s="18"/>
-      <c r="AK60" s="18"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="19"/>
       <c r="AL60" s="11"/>
     </row>
     <row r="61" spans="1:38">
       <c r="A61" s="9">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6053,7 +6510,7 @@
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="18"/>
+      <c r="K61" s="19"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -6068,22 +6525,22 @@
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
-      <c r="Z61" s="32"/>
-      <c r="AA61" s="32"/>
-      <c r="AB61" s="32"/>
-      <c r="AC61" s="32"/>
-      <c r="AD61" s="32"/>
-      <c r="AE61" s="32"/>
-      <c r="AF61" s="32"/>
-      <c r="AG61" s="38"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="34"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="34"/>
+      <c r="AG61" s="40"/>
       <c r="AI61" s="3"/>
-      <c r="AJ61" s="18"/>
-      <c r="AK61" s="18"/>
+      <c r="AJ61" s="19"/>
+      <c r="AK61" s="19"/>
       <c r="AL61" s="11"/>
     </row>
     <row r="62" spans="1:38">
       <c r="A62" s="9">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6094,7 +6551,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="18"/>
+      <c r="K62" s="19"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
@@ -6109,22 +6566,22 @@
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="32"/>
-      <c r="AB62" s="32"/>
-      <c r="AC62" s="32"/>
-      <c r="AD62" s="32"/>
-      <c r="AE62" s="32"/>
-      <c r="AF62" s="32"/>
-      <c r="AG62" s="38"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="34"/>
+      <c r="AC62" s="34"/>
+      <c r="AD62" s="34"/>
+      <c r="AE62" s="34"/>
+      <c r="AF62" s="34"/>
+      <c r="AG62" s="40"/>
       <c r="AI62" s="3"/>
-      <c r="AJ62" s="18"/>
-      <c r="AK62" s="18"/>
+      <c r="AJ62" s="19"/>
+      <c r="AK62" s="19"/>
       <c r="AL62" s="11"/>
     </row>
     <row r="63" spans="1:38">
       <c r="A63" s="9">
-        <v>44602</v>
+        <v>44604</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6135,7 +6592,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="18"/>
+      <c r="K63" s="19"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -6150,22 +6607,22 @@
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
-      <c r="AD63" s="32"/>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="38"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
+      <c r="AD63" s="34"/>
+      <c r="AE63" s="34"/>
+      <c r="AF63" s="34"/>
+      <c r="AG63" s="40"/>
       <c r="AI63" s="3"/>
-      <c r="AJ63" s="18"/>
-      <c r="AK63" s="18"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="19"/>
       <c r="AL63" s="11"/>
     </row>
     <row r="64" spans="1:38">
       <c r="A64" s="9">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -6176,7 +6633,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="18"/>
+      <c r="K64" s="19"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -6191,22 +6648,22 @@
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="38"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+      <c r="AC64" s="34"/>
+      <c r="AD64" s="34"/>
+      <c r="AE64" s="34"/>
+      <c r="AF64" s="34"/>
+      <c r="AG64" s="40"/>
       <c r="AI64" s="3"/>
-      <c r="AJ64" s="18"/>
-      <c r="AK64" s="18"/>
+      <c r="AJ64" s="19"/>
+      <c r="AK64" s="19"/>
       <c r="AL64" s="11"/>
     </row>
     <row r="65" spans="1:38">
       <c r="A65" s="9">
-        <v>44604</v>
+        <v>44606</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6217,7 +6674,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="18"/>
+      <c r="K65" s="19"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
@@ -6232,22 +6689,22 @@
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
-      <c r="AB65" s="32"/>
-      <c r="AC65" s="32"/>
-      <c r="AD65" s="32"/>
-      <c r="AE65" s="32"/>
-      <c r="AF65" s="32"/>
-      <c r="AG65" s="38"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="40"/>
       <c r="AI65" s="3"/>
-      <c r="AJ65" s="18"/>
-      <c r="AK65" s="18"/>
+      <c r="AJ65" s="19"/>
+      <c r="AK65" s="19"/>
       <c r="AL65" s="11"/>
     </row>
     <row r="66" spans="1:38">
       <c r="A66" s="9">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6258,7 +6715,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="18"/>
+      <c r="K66" s="19"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -6273,22 +6730,22 @@
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="32"/>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
-      <c r="AG66" s="38"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="34"/>
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="40"/>
       <c r="AI66" s="3"/>
-      <c r="AJ66" s="18"/>
-      <c r="AK66" s="18"/>
+      <c r="AJ66" s="19"/>
+      <c r="AK66" s="19"/>
       <c r="AL66" s="11"/>
     </row>
     <row r="67" spans="1:38">
       <c r="A67" s="9">
-        <v>44606</v>
+        <v>44608</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6299,7 +6756,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="18"/>
+      <c r="K67" s="19"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -6314,22 +6771,22 @@
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-      <c r="AB67" s="32"/>
-      <c r="AC67" s="32"/>
-      <c r="AD67" s="32"/>
-      <c r="AE67" s="32"/>
-      <c r="AF67" s="32"/>
-      <c r="AG67" s="38"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
+      <c r="AD67" s="34"/>
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="34"/>
+      <c r="AG67" s="40"/>
       <c r="AI67" s="3"/>
-      <c r="AJ67" s="18"/>
-      <c r="AK67" s="18"/>
+      <c r="AJ67" s="19"/>
+      <c r="AK67" s="19"/>
       <c r="AL67" s="11"/>
     </row>
     <row r="68" spans="1:38">
       <c r="A68" s="9">
-        <v>44607</v>
+        <v>44609</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6340,7 +6797,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="18"/>
+      <c r="K68" s="19"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
@@ -6355,22 +6812,22 @@
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="32"/>
-      <c r="AB68" s="32"/>
-      <c r="AC68" s="32"/>
-      <c r="AD68" s="32"/>
-      <c r="AE68" s="32"/>
-      <c r="AF68" s="32"/>
-      <c r="AG68" s="38"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
+      <c r="AD68" s="34"/>
+      <c r="AE68" s="34"/>
+      <c r="AF68" s="34"/>
+      <c r="AG68" s="40"/>
       <c r="AI68" s="3"/>
-      <c r="AJ68" s="18"/>
-      <c r="AK68" s="18"/>
+      <c r="AJ68" s="19"/>
+      <c r="AK68" s="19"/>
       <c r="AL68" s="11"/>
     </row>
     <row r="69" spans="1:38">
       <c r="A69" s="9">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6381,7 +6838,7 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="18"/>
+      <c r="K69" s="19"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
@@ -6396,22 +6853,22 @@
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
-      <c r="Z69" s="32"/>
-      <c r="AA69" s="32"/>
-      <c r="AB69" s="32"/>
-      <c r="AC69" s="32"/>
-      <c r="AD69" s="32"/>
-      <c r="AE69" s="32"/>
-      <c r="AF69" s="32"/>
-      <c r="AG69" s="38"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
+      <c r="AD69" s="34"/>
+      <c r="AE69" s="34"/>
+      <c r="AF69" s="34"/>
+      <c r="AG69" s="40"/>
       <c r="AI69" s="3"/>
-      <c r="AJ69" s="18"/>
-      <c r="AK69" s="18"/>
+      <c r="AJ69" s="19"/>
+      <c r="AK69" s="19"/>
       <c r="AL69" s="11"/>
     </row>
     <row r="70" spans="1:38">
       <c r="A70" s="9">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6422,7 +6879,7 @@
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="18"/>
+      <c r="K70" s="19"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
@@ -6437,22 +6894,22 @@
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
-      <c r="Z70" s="32"/>
-      <c r="AA70" s="32"/>
-      <c r="AB70" s="32"/>
-      <c r="AC70" s="32"/>
-      <c r="AD70" s="32"/>
-      <c r="AE70" s="32"/>
-      <c r="AF70" s="32"/>
-      <c r="AG70" s="38"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
+      <c r="AD70" s="34"/>
+      <c r="AE70" s="34"/>
+      <c r="AF70" s="34"/>
+      <c r="AG70" s="40"/>
       <c r="AI70" s="3"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="18"/>
+      <c r="AJ70" s="19"/>
+      <c r="AK70" s="19"/>
       <c r="AL70" s="11"/>
     </row>
     <row r="71" spans="1:38">
       <c r="A71" s="9">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6463,7 +6920,7 @@
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="18"/>
+      <c r="K71" s="19"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -6478,22 +6935,22 @@
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
-      <c r="Z71" s="32"/>
-      <c r="AA71" s="32"/>
-      <c r="AB71" s="32"/>
-      <c r="AC71" s="32"/>
-      <c r="AD71" s="32"/>
-      <c r="AE71" s="32"/>
-      <c r="AF71" s="32"/>
-      <c r="AG71" s="38"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="34"/>
+      <c r="AC71" s="34"/>
+      <c r="AD71" s="34"/>
+      <c r="AE71" s="34"/>
+      <c r="AF71" s="34"/>
+      <c r="AG71" s="40"/>
       <c r="AI71" s="3"/>
-      <c r="AJ71" s="18"/>
-      <c r="AK71" s="18"/>
+      <c r="AJ71" s="19"/>
+      <c r="AK71" s="19"/>
       <c r="AL71" s="11"/>
     </row>
     <row r="72" spans="1:38">
       <c r="A72" s="9">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6504,7 +6961,7 @@
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="18"/>
+      <c r="K72" s="19"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -6519,22 +6976,22 @@
       <c r="W72" s="11"/>
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
-      <c r="Z72" s="32"/>
-      <c r="AA72" s="32"/>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="32"/>
-      <c r="AD72" s="32"/>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
-      <c r="AG72" s="38"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="34"/>
+      <c r="AC72" s="34"/>
+      <c r="AD72" s="34"/>
+      <c r="AE72" s="34"/>
+      <c r="AF72" s="34"/>
+      <c r="AG72" s="40"/>
       <c r="AI72" s="3"/>
-      <c r="AJ72" s="18"/>
-      <c r="AK72" s="18"/>
+      <c r="AJ72" s="19"/>
+      <c r="AK72" s="19"/>
       <c r="AL72" s="11"/>
     </row>
     <row r="73" spans="1:38">
       <c r="A73" s="9">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6545,7 +7002,7 @@
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="18"/>
+      <c r="K73" s="19"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -6560,22 +7017,22 @@
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
-      <c r="Z73" s="32"/>
-      <c r="AA73" s="32"/>
-      <c r="AB73" s="32"/>
-      <c r="AC73" s="32"/>
-      <c r="AD73" s="32"/>
-      <c r="AE73" s="32"/>
-      <c r="AF73" s="32"/>
-      <c r="AG73" s="38"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
+      <c r="AD73" s="34"/>
+      <c r="AE73" s="34"/>
+      <c r="AF73" s="34"/>
+      <c r="AG73" s="40"/>
       <c r="AI73" s="3"/>
-      <c r="AJ73" s="18"/>
-      <c r="AK73" s="18"/>
+      <c r="AJ73" s="19"/>
+      <c r="AK73" s="19"/>
       <c r="AL73" s="11"/>
     </row>
     <row r="74" spans="1:38">
       <c r="A74" s="9">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6586,7 +7043,7 @@
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="18"/>
+      <c r="K74" s="19"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -6601,22 +7058,22 @@
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
-      <c r="Z74" s="32"/>
-      <c r="AA74" s="32"/>
-      <c r="AB74" s="32"/>
-      <c r="AC74" s="32"/>
-      <c r="AD74" s="32"/>
-      <c r="AE74" s="32"/>
-      <c r="AF74" s="32"/>
-      <c r="AG74" s="38"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="34"/>
+      <c r="AC74" s="34"/>
+      <c r="AD74" s="34"/>
+      <c r="AE74" s="34"/>
+      <c r="AF74" s="34"/>
+      <c r="AG74" s="40"/>
       <c r="AI74" s="3"/>
-      <c r="AJ74" s="18"/>
-      <c r="AK74" s="18"/>
+      <c r="AJ74" s="19"/>
+      <c r="AK74" s="19"/>
       <c r="AL74" s="11"/>
     </row>
     <row r="75" spans="1:38">
       <c r="A75" s="9">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6627,7 +7084,7 @@
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="18"/>
+      <c r="K75" s="19"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -6642,22 +7099,22 @@
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
-      <c r="Z75" s="32"/>
-      <c r="AA75" s="32"/>
-      <c r="AB75" s="32"/>
-      <c r="AC75" s="32"/>
-      <c r="AD75" s="32"/>
-      <c r="AE75" s="32"/>
-      <c r="AF75" s="32"/>
-      <c r="AG75" s="38"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
+      <c r="AD75" s="34"/>
+      <c r="AE75" s="34"/>
+      <c r="AF75" s="34"/>
+      <c r="AG75" s="40"/>
       <c r="AI75" s="3"/>
-      <c r="AJ75" s="18"/>
-      <c r="AK75" s="18"/>
+      <c r="AJ75" s="19"/>
+      <c r="AK75" s="19"/>
       <c r="AL75" s="11"/>
     </row>
     <row r="76" spans="1:38">
       <c r="A76" s="9">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6668,7 +7125,7 @@
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="18"/>
+      <c r="K76" s="19"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -6683,22 +7140,22 @@
       <c r="W76" s="11"/>
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="32"/>
-      <c r="AB76" s="32"/>
-      <c r="AC76" s="32"/>
-      <c r="AD76" s="32"/>
-      <c r="AE76" s="32"/>
-      <c r="AF76" s="32"/>
-      <c r="AG76" s="38"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="34"/>
+      <c r="AD76" s="34"/>
+      <c r="AE76" s="34"/>
+      <c r="AF76" s="34"/>
+      <c r="AG76" s="40"/>
       <c r="AI76" s="3"/>
-      <c r="AJ76" s="18"/>
-      <c r="AK76" s="18"/>
+      <c r="AJ76" s="19"/>
+      <c r="AK76" s="19"/>
       <c r="AL76" s="11"/>
     </row>
     <row r="77" spans="1:38">
       <c r="A77" s="9">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6709,7 +7166,7 @@
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="18"/>
+      <c r="K77" s="19"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -6724,22 +7181,22 @@
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
-      <c r="Z77" s="32"/>
-      <c r="AA77" s="32"/>
-      <c r="AB77" s="32"/>
-      <c r="AC77" s="32"/>
-      <c r="AD77" s="32"/>
-      <c r="AE77" s="32"/>
-      <c r="AF77" s="32"/>
-      <c r="AG77" s="38"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="34"/>
+      <c r="AC77" s="34"/>
+      <c r="AD77" s="34"/>
+      <c r="AE77" s="34"/>
+      <c r="AF77" s="34"/>
+      <c r="AG77" s="40"/>
       <c r="AI77" s="3"/>
-      <c r="AJ77" s="18"/>
-      <c r="AK77" s="18"/>
+      <c r="AJ77" s="19"/>
+      <c r="AK77" s="19"/>
       <c r="AL77" s="11"/>
     </row>
     <row r="78" spans="1:38">
       <c r="A78" s="9">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6750,7 +7207,7 @@
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="18"/>
+      <c r="K78" s="19"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -6765,22 +7222,22 @@
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
-      <c r="Z78" s="32"/>
-      <c r="AA78" s="32"/>
-      <c r="AB78" s="32"/>
-      <c r="AC78" s="32"/>
-      <c r="AD78" s="32"/>
-      <c r="AE78" s="32"/>
-      <c r="AF78" s="32"/>
-      <c r="AG78" s="38"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="34"/>
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="40"/>
       <c r="AI78" s="3"/>
-      <c r="AJ78" s="18"/>
-      <c r="AK78" s="18"/>
+      <c r="AJ78" s="19"/>
+      <c r="AK78" s="19"/>
       <c r="AL78" s="11"/>
     </row>
     <row r="79" spans="1:38">
       <c r="A79" s="9">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6791,7 +7248,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="18"/>
+      <c r="K79" s="19"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -6806,22 +7263,22 @@
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
-      <c r="Z79" s="32"/>
-      <c r="AA79" s="32"/>
-      <c r="AB79" s="32"/>
-      <c r="AC79" s="32"/>
-      <c r="AD79" s="32"/>
-      <c r="AE79" s="32"/>
-      <c r="AF79" s="32"/>
-      <c r="AG79" s="38"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="34"/>
+      <c r="AC79" s="34"/>
+      <c r="AD79" s="34"/>
+      <c r="AE79" s="34"/>
+      <c r="AF79" s="34"/>
+      <c r="AG79" s="40"/>
       <c r="AI79" s="3"/>
-      <c r="AJ79" s="18"/>
-      <c r="AK79" s="18"/>
+      <c r="AJ79" s="19"/>
+      <c r="AK79" s="19"/>
       <c r="AL79" s="11"/>
     </row>
     <row r="80" spans="1:38">
       <c r="A80" s="9">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6832,7 +7289,7 @@
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="18"/>
+      <c r="K80" s="19"/>
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
@@ -6847,22 +7304,22 @@
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="32"/>
-      <c r="AB80" s="32"/>
-      <c r="AC80" s="32"/>
-      <c r="AD80" s="32"/>
-      <c r="AE80" s="32"/>
-      <c r="AF80" s="32"/>
-      <c r="AG80" s="38"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="34"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="34"/>
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="34"/>
+      <c r="AG80" s="40"/>
       <c r="AI80" s="3"/>
-      <c r="AJ80" s="18"/>
-      <c r="AK80" s="18"/>
+      <c r="AJ80" s="19"/>
+      <c r="AK80" s="19"/>
       <c r="AL80" s="11"/>
     </row>
     <row r="81" spans="1:38">
       <c r="A81" s="9">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6873,7 +7330,7 @@
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="18"/>
+      <c r="K81" s="19"/>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6888,22 +7345,22 @@
       <c r="W81" s="11"/>
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
-      <c r="AD81" s="32"/>
-      <c r="AE81" s="32"/>
-      <c r="AF81" s="32"/>
-      <c r="AG81" s="38"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
+      <c r="AB81" s="34"/>
+      <c r="AC81" s="34"/>
+      <c r="AD81" s="34"/>
+      <c r="AE81" s="34"/>
+      <c r="AF81" s="34"/>
+      <c r="AG81" s="40"/>
       <c r="AI81" s="3"/>
-      <c r="AJ81" s="18"/>
-      <c r="AK81" s="18"/>
+      <c r="AJ81" s="19"/>
+      <c r="AK81" s="19"/>
       <c r="AL81" s="11"/>
     </row>
     <row r="82" spans="1:38">
       <c r="A82" s="9">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6914,7 +7371,7 @@
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="18"/>
+      <c r="K82" s="19"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6929,22 +7386,22 @@
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
-      <c r="AD82" s="32"/>
-      <c r="AE82" s="32"/>
-      <c r="AF82" s="32"/>
-      <c r="AG82" s="38"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
+      <c r="AB82" s="34"/>
+      <c r="AC82" s="34"/>
+      <c r="AD82" s="34"/>
+      <c r="AE82" s="34"/>
+      <c r="AF82" s="34"/>
+      <c r="AG82" s="40"/>
       <c r="AI82" s="3"/>
-      <c r="AJ82" s="18"/>
-      <c r="AK82" s="18"/>
+      <c r="AJ82" s="19"/>
+      <c r="AK82" s="19"/>
       <c r="AL82" s="11"/>
     </row>
     <row r="83" spans="1:38">
       <c r="A83" s="9">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6955,7 +7412,7 @@
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="18"/>
+      <c r="K83" s="19"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6970,22 +7427,22 @@
       <c r="W83" s="11"/>
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
-      <c r="Z83" s="32"/>
-      <c r="AA83" s="32"/>
-      <c r="AB83" s="32"/>
-      <c r="AC83" s="32"/>
-      <c r="AD83" s="32"/>
-      <c r="AE83" s="32"/>
-      <c r="AF83" s="32"/>
-      <c r="AG83" s="38"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
+      <c r="AB83" s="34"/>
+      <c r="AC83" s="34"/>
+      <c r="AD83" s="34"/>
+      <c r="AE83" s="34"/>
+      <c r="AF83" s="34"/>
+      <c r="AG83" s="40"/>
       <c r="AI83" s="3"/>
-      <c r="AJ83" s="18"/>
-      <c r="AK83" s="18"/>
+      <c r="AJ83" s="19"/>
+      <c r="AK83" s="19"/>
       <c r="AL83" s="11"/>
     </row>
     <row r="84" spans="1:38">
       <c r="A84" s="9">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6996,7 +7453,7 @@
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="18"/>
+      <c r="K84" s="19"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -7011,22 +7468,22 @@
       <c r="W84" s="11"/>
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="32"/>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
-      <c r="AG84" s="38"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="34"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="34"/>
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="34"/>
+      <c r="AG84" s="40"/>
       <c r="AI84" s="3"/>
-      <c r="AJ84" s="18"/>
-      <c r="AK84" s="18"/>
+      <c r="AJ84" s="19"/>
+      <c r="AK84" s="19"/>
       <c r="AL84" s="11"/>
     </row>
     <row r="85" spans="1:38">
       <c r="A85" s="9">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -7037,7 +7494,7 @@
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="18"/>
+      <c r="K85" s="19"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -7052,22 +7509,22 @@
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
-      <c r="Z85" s="32"/>
-      <c r="AA85" s="32"/>
-      <c r="AB85" s="32"/>
-      <c r="AC85" s="32"/>
-      <c r="AD85" s="32"/>
-      <c r="AE85" s="32"/>
-      <c r="AF85" s="32"/>
-      <c r="AG85" s="38"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
+      <c r="AB85" s="34"/>
+      <c r="AC85" s="34"/>
+      <c r="AD85" s="34"/>
+      <c r="AE85" s="34"/>
+      <c r="AF85" s="34"/>
+      <c r="AG85" s="40"/>
       <c r="AI85" s="3"/>
-      <c r="AJ85" s="18"/>
-      <c r="AK85" s="18"/>
+      <c r="AJ85" s="19"/>
+      <c r="AK85" s="19"/>
       <c r="AL85" s="11"/>
     </row>
     <row r="86" spans="1:38">
       <c r="A86" s="9">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -7078,7 +7535,7 @@
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="18"/>
+      <c r="K86" s="19"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -7093,22 +7550,22 @@
       <c r="W86" s="11"/>
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-      <c r="AB86" s="32"/>
-      <c r="AC86" s="32"/>
-      <c r="AD86" s="32"/>
-      <c r="AE86" s="32"/>
-      <c r="AF86" s="32"/>
-      <c r="AG86" s="38"/>
+      <c r="Z86" s="34"/>
+      <c r="AA86" s="34"/>
+      <c r="AB86" s="34"/>
+      <c r="AC86" s="34"/>
+      <c r="AD86" s="34"/>
+      <c r="AE86" s="34"/>
+      <c r="AF86" s="34"/>
+      <c r="AG86" s="40"/>
       <c r="AI86" s="3"/>
-      <c r="AJ86" s="18"/>
-      <c r="AK86" s="18"/>
+      <c r="AJ86" s="19"/>
+      <c r="AK86" s="19"/>
       <c r="AL86" s="11"/>
     </row>
     <row r="87" spans="1:38">
       <c r="A87" s="9">
-        <v>44626</v>
+        <v>44628</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -7119,7 +7576,7 @@
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="18"/>
+      <c r="K87" s="19"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -7134,22 +7591,22 @@
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
-      <c r="AD87" s="32"/>
-      <c r="AE87" s="32"/>
-      <c r="AF87" s="32"/>
-      <c r="AG87" s="38"/>
+      <c r="Z87" s="34"/>
+      <c r="AA87" s="34"/>
+      <c r="AB87" s="34"/>
+      <c r="AC87" s="34"/>
+      <c r="AD87" s="34"/>
+      <c r="AE87" s="34"/>
+      <c r="AF87" s="34"/>
+      <c r="AG87" s="40"/>
       <c r="AI87" s="3"/>
-      <c r="AJ87" s="18"/>
-      <c r="AK87" s="18"/>
+      <c r="AJ87" s="19"/>
+      <c r="AK87" s="19"/>
       <c r="AL87" s="11"/>
     </row>
     <row r="88" spans="1:38">
       <c r="A88" s="9">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -7160,7 +7617,7 @@
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="18"/>
+      <c r="K88" s="19"/>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -7175,22 +7632,22 @@
       <c r="W88" s="11"/>
       <c r="X88" s="11"/>
       <c r="Y88" s="11"/>
-      <c r="Z88" s="32"/>
-      <c r="AA88" s="32"/>
-      <c r="AB88" s="32"/>
-      <c r="AC88" s="32"/>
-      <c r="AD88" s="32"/>
-      <c r="AE88" s="32"/>
-      <c r="AF88" s="32"/>
-      <c r="AG88" s="38"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
+      <c r="AB88" s="34"/>
+      <c r="AC88" s="34"/>
+      <c r="AD88" s="34"/>
+      <c r="AE88" s="34"/>
+      <c r="AF88" s="34"/>
+      <c r="AG88" s="40"/>
       <c r="AI88" s="3"/>
-      <c r="AJ88" s="18"/>
-      <c r="AK88" s="18"/>
+      <c r="AJ88" s="19"/>
+      <c r="AK88" s="19"/>
       <c r="AL88" s="11"/>
     </row>
     <row r="89" spans="1:38">
       <c r="A89" s="9">
-        <v>44628</v>
+        <v>44630</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -7201,7 +7658,7 @@
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="18"/>
+      <c r="K89" s="19"/>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
@@ -7216,22 +7673,22 @@
       <c r="W89" s="11"/>
       <c r="X89" s="11"/>
       <c r="Y89" s="11"/>
-      <c r="Z89" s="32"/>
-      <c r="AA89" s="32"/>
-      <c r="AB89" s="32"/>
-      <c r="AC89" s="32"/>
-      <c r="AD89" s="32"/>
-      <c r="AE89" s="32"/>
-      <c r="AF89" s="32"/>
-      <c r="AG89" s="38"/>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
+      <c r="AB89" s="34"/>
+      <c r="AC89" s="34"/>
+      <c r="AD89" s="34"/>
+      <c r="AE89" s="34"/>
+      <c r="AF89" s="34"/>
+      <c r="AG89" s="40"/>
       <c r="AI89" s="3"/>
-      <c r="AJ89" s="18"/>
-      <c r="AK89" s="18"/>
+      <c r="AJ89" s="19"/>
+      <c r="AK89" s="19"/>
       <c r="AL89" s="11"/>
     </row>
     <row r="90" spans="1:38">
       <c r="A90" s="9">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -7242,7 +7699,7 @@
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="18"/>
+      <c r="K90" s="19"/>
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
@@ -7257,22 +7714,22 @@
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
-      <c r="Z90" s="32"/>
-      <c r="AA90" s="32"/>
-      <c r="AB90" s="32"/>
-      <c r="AC90" s="32"/>
-      <c r="AD90" s="32"/>
-      <c r="AE90" s="32"/>
-      <c r="AF90" s="32"/>
-      <c r="AG90" s="38"/>
+      <c r="Z90" s="34"/>
+      <c r="AA90" s="34"/>
+      <c r="AB90" s="34"/>
+      <c r="AC90" s="34"/>
+      <c r="AD90" s="34"/>
+      <c r="AE90" s="34"/>
+      <c r="AF90" s="34"/>
+      <c r="AG90" s="40"/>
       <c r="AI90" s="3"/>
-      <c r="AJ90" s="18"/>
-      <c r="AK90" s="18"/>
+      <c r="AJ90" s="19"/>
+      <c r="AK90" s="19"/>
       <c r="AL90" s="11"/>
     </row>
     <row r="91" spans="1:38">
       <c r="A91" s="9">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7283,7 +7740,7 @@
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="18"/>
+      <c r="K91" s="19"/>
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
@@ -7298,22 +7755,22 @@
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
-      <c r="Z91" s="32"/>
-      <c r="AA91" s="32"/>
-      <c r="AB91" s="32"/>
-      <c r="AC91" s="32"/>
-      <c r="AD91" s="32"/>
-      <c r="AE91" s="32"/>
-      <c r="AF91" s="32"/>
-      <c r="AG91" s="38"/>
+      <c r="Z91" s="34"/>
+      <c r="AA91" s="34"/>
+      <c r="AB91" s="34"/>
+      <c r="AC91" s="34"/>
+      <c r="AD91" s="34"/>
+      <c r="AE91" s="34"/>
+      <c r="AF91" s="34"/>
+      <c r="AG91" s="40"/>
       <c r="AI91" s="3"/>
-      <c r="AJ91" s="18"/>
-      <c r="AK91" s="18"/>
+      <c r="AJ91" s="19"/>
+      <c r="AK91" s="19"/>
       <c r="AL91" s="11"/>
     </row>
     <row r="92" spans="1:38">
       <c r="A92" s="9">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -7324,7 +7781,7 @@
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="18"/>
+      <c r="K92" s="19"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -7339,22 +7796,22 @@
       <c r="W92" s="11"/>
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
-      <c r="Z92" s="32"/>
-      <c r="AA92" s="32"/>
-      <c r="AB92" s="32"/>
-      <c r="AC92" s="32"/>
-      <c r="AD92" s="32"/>
-      <c r="AE92" s="32"/>
-      <c r="AF92" s="32"/>
-      <c r="AG92" s="38"/>
+      <c r="Z92" s="34"/>
+      <c r="AA92" s="34"/>
+      <c r="AB92" s="34"/>
+      <c r="AC92" s="34"/>
+      <c r="AD92" s="34"/>
+      <c r="AE92" s="34"/>
+      <c r="AF92" s="34"/>
+      <c r="AG92" s="40"/>
       <c r="AI92" s="3"/>
-      <c r="AJ92" s="18"/>
-      <c r="AK92" s="18"/>
+      <c r="AJ92" s="19"/>
+      <c r="AK92" s="19"/>
       <c r="AL92" s="11"/>
     </row>
     <row r="93" spans="1:38">
       <c r="A93" s="9">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -7365,7 +7822,7 @@
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="18"/>
+      <c r="K93" s="19"/>
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
@@ -7380,22 +7837,22 @@
       <c r="W93" s="11"/>
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
-      <c r="Z93" s="32"/>
-      <c r="AA93" s="32"/>
-      <c r="AB93" s="32"/>
-      <c r="AC93" s="32"/>
-      <c r="AD93" s="32"/>
-      <c r="AE93" s="32"/>
-      <c r="AF93" s="32"/>
-      <c r="AG93" s="38"/>
+      <c r="Z93" s="34"/>
+      <c r="AA93" s="34"/>
+      <c r="AB93" s="34"/>
+      <c r="AC93" s="34"/>
+      <c r="AD93" s="34"/>
+      <c r="AE93" s="34"/>
+      <c r="AF93" s="34"/>
+      <c r="AG93" s="40"/>
       <c r="AI93" s="3"/>
-      <c r="AJ93" s="18"/>
-      <c r="AK93" s="18"/>
+      <c r="AJ93" s="19"/>
+      <c r="AK93" s="19"/>
       <c r="AL93" s="11"/>
     </row>
     <row r="94" spans="1:38">
       <c r="A94" s="9">
-        <v>44633</v>
+        <v>44635</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -7406,7 +7863,7 @@
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="18"/>
+      <c r="K94" s="19"/>
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
@@ -7421,22 +7878,22 @@
       <c r="W94" s="11"/>
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
-      <c r="Z94" s="32"/>
-      <c r="AA94" s="32"/>
-      <c r="AB94" s="32"/>
-      <c r="AC94" s="32"/>
-      <c r="AD94" s="32"/>
-      <c r="AE94" s="32"/>
-      <c r="AF94" s="32"/>
-      <c r="AG94" s="38"/>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="34"/>
+      <c r="AB94" s="34"/>
+      <c r="AC94" s="34"/>
+      <c r="AD94" s="34"/>
+      <c r="AE94" s="34"/>
+      <c r="AF94" s="34"/>
+      <c r="AG94" s="40"/>
       <c r="AI94" s="3"/>
-      <c r="AJ94" s="18"/>
-      <c r="AK94" s="18"/>
+      <c r="AJ94" s="19"/>
+      <c r="AK94" s="19"/>
       <c r="AL94" s="11"/>
     </row>
     <row r="95" spans="1:38">
       <c r="A95" s="9">
-        <v>44634</v>
+        <v>44636</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -7447,7 +7904,7 @@
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="18"/>
+      <c r="K95" s="19"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
@@ -7462,22 +7919,22 @@
       <c r="W95" s="11"/>
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
-      <c r="Z95" s="32"/>
-      <c r="AA95" s="32"/>
-      <c r="AB95" s="32"/>
-      <c r="AC95" s="32"/>
-      <c r="AD95" s="32"/>
-      <c r="AE95" s="32"/>
-      <c r="AF95" s="32"/>
-      <c r="AG95" s="38"/>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="34"/>
+      <c r="AB95" s="34"/>
+      <c r="AC95" s="34"/>
+      <c r="AD95" s="34"/>
+      <c r="AE95" s="34"/>
+      <c r="AF95" s="34"/>
+      <c r="AG95" s="40"/>
       <c r="AI95" s="3"/>
-      <c r="AJ95" s="18"/>
-      <c r="AK95" s="18"/>
+      <c r="AJ95" s="19"/>
+      <c r="AK95" s="19"/>
       <c r="AL95" s="11"/>
     </row>
     <row r="96" spans="1:38">
       <c r="A96" s="9">
-        <v>44635</v>
+        <v>44637</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -7488,7 +7945,7 @@
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="18"/>
+      <c r="K96" s="19"/>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
@@ -7503,22 +7960,22 @@
       <c r="W96" s="11"/>
       <c r="X96" s="11"/>
       <c r="Y96" s="11"/>
-      <c r="Z96" s="32"/>
-      <c r="AA96" s="32"/>
-      <c r="AB96" s="32"/>
-      <c r="AC96" s="32"/>
-      <c r="AD96" s="32"/>
-      <c r="AE96" s="32"/>
-      <c r="AF96" s="32"/>
-      <c r="AG96" s="38"/>
+      <c r="Z96" s="34"/>
+      <c r="AA96" s="34"/>
+      <c r="AB96" s="34"/>
+      <c r="AC96" s="34"/>
+      <c r="AD96" s="34"/>
+      <c r="AE96" s="34"/>
+      <c r="AF96" s="34"/>
+      <c r="AG96" s="40"/>
       <c r="AI96" s="3"/>
-      <c r="AJ96" s="18"/>
-      <c r="AK96" s="18"/>
+      <c r="AJ96" s="19"/>
+      <c r="AK96" s="19"/>
       <c r="AL96" s="11"/>
     </row>
     <row r="97" spans="1:38">
       <c r="A97" s="9">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -7529,7 +7986,7 @@
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="18"/>
+      <c r="K97" s="19"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -7544,22 +8001,22 @@
       <c r="W97" s="11"/>
       <c r="X97" s="11"/>
       <c r="Y97" s="11"/>
-      <c r="Z97" s="32"/>
-      <c r="AA97" s="32"/>
-      <c r="AB97" s="32"/>
-      <c r="AC97" s="32"/>
-      <c r="AD97" s="32"/>
-      <c r="AE97" s="32"/>
-      <c r="AF97" s="32"/>
-      <c r="AG97" s="38"/>
+      <c r="Z97" s="34"/>
+      <c r="AA97" s="34"/>
+      <c r="AB97" s="34"/>
+      <c r="AC97" s="34"/>
+      <c r="AD97" s="34"/>
+      <c r="AE97" s="34"/>
+      <c r="AF97" s="34"/>
+      <c r="AG97" s="40"/>
       <c r="AI97" s="3"/>
-      <c r="AJ97" s="18"/>
-      <c r="AK97" s="18"/>
+      <c r="AJ97" s="19"/>
+      <c r="AK97" s="19"/>
       <c r="AL97" s="11"/>
     </row>
     <row r="98" spans="1:38">
       <c r="A98" s="9">
-        <v>44637</v>
+        <v>44639</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7570,7 +8027,7 @@
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="18"/>
+      <c r="K98" s="19"/>
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
@@ -7585,22 +8042,22 @@
       <c r="W98" s="11"/>
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
-      <c r="Z98" s="32"/>
-      <c r="AA98" s="32"/>
-      <c r="AB98" s="32"/>
-      <c r="AC98" s="32"/>
-      <c r="AD98" s="32"/>
-      <c r="AE98" s="32"/>
-      <c r="AF98" s="32"/>
-      <c r="AG98" s="38"/>
+      <c r="Z98" s="34"/>
+      <c r="AA98" s="34"/>
+      <c r="AB98" s="34"/>
+      <c r="AC98" s="34"/>
+      <c r="AD98" s="34"/>
+      <c r="AE98" s="34"/>
+      <c r="AF98" s="34"/>
+      <c r="AG98" s="40"/>
       <c r="AI98" s="3"/>
-      <c r="AJ98" s="18"/>
-      <c r="AK98" s="18"/>
+      <c r="AJ98" s="19"/>
+      <c r="AK98" s="19"/>
       <c r="AL98" s="11"/>
     </row>
     <row r="99" spans="1:38">
       <c r="A99" s="9">
-        <v>44638</v>
+        <v>44640</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7611,7 +8068,7 @@
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="18"/>
+      <c r="K99" s="19"/>
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
@@ -7626,22 +8083,22 @@
       <c r="W99" s="11"/>
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
-      <c r="Z99" s="32"/>
-      <c r="AA99" s="32"/>
-      <c r="AB99" s="32"/>
-      <c r="AC99" s="32"/>
-      <c r="AD99" s="32"/>
-      <c r="AE99" s="32"/>
-      <c r="AF99" s="32"/>
-      <c r="AG99" s="38"/>
+      <c r="Z99" s="34"/>
+      <c r="AA99" s="34"/>
+      <c r="AB99" s="34"/>
+      <c r="AC99" s="34"/>
+      <c r="AD99" s="34"/>
+      <c r="AE99" s="34"/>
+      <c r="AF99" s="34"/>
+      <c r="AG99" s="40"/>
       <c r="AI99" s="3"/>
-      <c r="AJ99" s="18"/>
-      <c r="AK99" s="18"/>
+      <c r="AJ99" s="19"/>
+      <c r="AK99" s="19"/>
       <c r="AL99" s="11"/>
     </row>
     <row r="100" spans="1:38">
       <c r="A100" s="9">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -7652,7 +8109,7 @@
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="18"/>
+      <c r="K100" s="19"/>
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
@@ -7667,22 +8124,22 @@
       <c r="W100" s="11"/>
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
-      <c r="Z100" s="32"/>
-      <c r="AA100" s="32"/>
-      <c r="AB100" s="32"/>
-      <c r="AC100" s="32"/>
-      <c r="AD100" s="32"/>
-      <c r="AE100" s="32"/>
-      <c r="AF100" s="32"/>
-      <c r="AG100" s="38"/>
+      <c r="Z100" s="34"/>
+      <c r="AA100" s="34"/>
+      <c r="AB100" s="34"/>
+      <c r="AC100" s="34"/>
+      <c r="AD100" s="34"/>
+      <c r="AE100" s="34"/>
+      <c r="AF100" s="34"/>
+      <c r="AG100" s="40"/>
       <c r="AI100" s="3"/>
-      <c r="AJ100" s="18"/>
-      <c r="AK100" s="18"/>
+      <c r="AJ100" s="19"/>
+      <c r="AK100" s="19"/>
       <c r="AL100" s="11"/>
     </row>
     <row r="101" spans="1:38">
       <c r="A101" s="9">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -7693,7 +8150,7 @@
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="18"/>
+      <c r="K101" s="19"/>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
@@ -7708,22 +8165,22 @@
       <c r="W101" s="11"/>
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
-      <c r="Z101" s="32"/>
-      <c r="AA101" s="32"/>
-      <c r="AB101" s="32"/>
-      <c r="AC101" s="32"/>
-      <c r="AD101" s="32"/>
-      <c r="AE101" s="32"/>
-      <c r="AF101" s="32"/>
-      <c r="AG101" s="38"/>
+      <c r="Z101" s="34"/>
+      <c r="AA101" s="34"/>
+      <c r="AB101" s="34"/>
+      <c r="AC101" s="34"/>
+      <c r="AD101" s="34"/>
+      <c r="AE101" s="34"/>
+      <c r="AF101" s="34"/>
+      <c r="AG101" s="40"/>
       <c r="AI101" s="3"/>
-      <c r="AJ101" s="18"/>
-      <c r="AK101" s="18"/>
+      <c r="AJ101" s="19"/>
+      <c r="AK101" s="19"/>
       <c r="AL101" s="11"/>
     </row>
     <row r="102" spans="1:38">
       <c r="A102" s="9">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -7734,7 +8191,7 @@
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="18"/>
+      <c r="K102" s="19"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -7749,22 +8206,22 @@
       <c r="W102" s="11"/>
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
-      <c r="Z102" s="32"/>
-      <c r="AA102" s="32"/>
-      <c r="AB102" s="32"/>
-      <c r="AC102" s="32"/>
-      <c r="AD102" s="32"/>
-      <c r="AE102" s="32"/>
-      <c r="AF102" s="32"/>
-      <c r="AG102" s="38"/>
+      <c r="Z102" s="34"/>
+      <c r="AA102" s="34"/>
+      <c r="AB102" s="34"/>
+      <c r="AC102" s="34"/>
+      <c r="AD102" s="34"/>
+      <c r="AE102" s="34"/>
+      <c r="AF102" s="34"/>
+      <c r="AG102" s="40"/>
       <c r="AI102" s="3"/>
-      <c r="AJ102" s="18"/>
-      <c r="AK102" s="18"/>
+      <c r="AJ102" s="19"/>
+      <c r="AK102" s="19"/>
       <c r="AL102" s="11"/>
     </row>
     <row r="103" spans="1:38">
       <c r="A103" s="9">
-        <v>44642</v>
+        <v>44644</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -7775,7 +8232,7 @@
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="18"/>
+      <c r="K103" s="19"/>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -7790,22 +8247,22 @@
       <c r="W103" s="11"/>
       <c r="X103" s="11"/>
       <c r="Y103" s="11"/>
-      <c r="Z103" s="32"/>
-      <c r="AA103" s="32"/>
-      <c r="AB103" s="32"/>
-      <c r="AC103" s="32"/>
-      <c r="AD103" s="32"/>
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
-      <c r="AG103" s="38"/>
+      <c r="Z103" s="34"/>
+      <c r="AA103" s="34"/>
+      <c r="AB103" s="34"/>
+      <c r="AC103" s="34"/>
+      <c r="AD103" s="34"/>
+      <c r="AE103" s="34"/>
+      <c r="AF103" s="34"/>
+      <c r="AG103" s="40"/>
       <c r="AI103" s="3"/>
-      <c r="AJ103" s="18"/>
-      <c r="AK103" s="18"/>
+      <c r="AJ103" s="19"/>
+      <c r="AK103" s="19"/>
       <c r="AL103" s="11"/>
     </row>
     <row r="104" spans="1:38">
       <c r="A104" s="9">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -7816,7 +8273,7 @@
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="18"/>
+      <c r="K104" s="19"/>
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
@@ -7831,22 +8288,22 @@
       <c r="W104" s="11"/>
       <c r="X104" s="11"/>
       <c r="Y104" s="11"/>
-      <c r="Z104" s="32"/>
-      <c r="AA104" s="32"/>
-      <c r="AB104" s="32"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="32"/>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
-      <c r="AG104" s="38"/>
+      <c r="Z104" s="34"/>
+      <c r="AA104" s="34"/>
+      <c r="AB104" s="34"/>
+      <c r="AC104" s="34"/>
+      <c r="AD104" s="34"/>
+      <c r="AE104" s="34"/>
+      <c r="AF104" s="34"/>
+      <c r="AG104" s="40"/>
       <c r="AI104" s="3"/>
-      <c r="AJ104" s="18"/>
-      <c r="AK104" s="18"/>
+      <c r="AJ104" s="19"/>
+      <c r="AK104" s="19"/>
       <c r="AL104" s="11"/>
     </row>
     <row r="105" spans="1:38">
       <c r="A105" s="9">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -7857,7 +8314,7 @@
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="18"/>
+      <c r="K105" s="19"/>
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
@@ -7872,22 +8329,22 @@
       <c r="W105" s="11"/>
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
-      <c r="Z105" s="32"/>
-      <c r="AA105" s="32"/>
-      <c r="AB105" s="32"/>
-      <c r="AC105" s="32"/>
-      <c r="AD105" s="32"/>
-      <c r="AE105" s="32"/>
-      <c r="AF105" s="32"/>
-      <c r="AG105" s="38"/>
+      <c r="Z105" s="34"/>
+      <c r="AA105" s="34"/>
+      <c r="AB105" s="34"/>
+      <c r="AC105" s="34"/>
+      <c r="AD105" s="34"/>
+      <c r="AE105" s="34"/>
+      <c r="AF105" s="34"/>
+      <c r="AG105" s="40"/>
       <c r="AI105" s="3"/>
-      <c r="AJ105" s="18"/>
-      <c r="AK105" s="18"/>
+      <c r="AJ105" s="19"/>
+      <c r="AK105" s="19"/>
       <c r="AL105" s="11"/>
     </row>
     <row r="106" spans="1:38">
       <c r="A106" s="9">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -7898,7 +8355,7 @@
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="18"/>
+      <c r="K106" s="19"/>
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
@@ -7913,22 +8370,22 @@
       <c r="W106" s="11"/>
       <c r="X106" s="11"/>
       <c r="Y106" s="11"/>
-      <c r="Z106" s="32"/>
-      <c r="AA106" s="32"/>
-      <c r="AB106" s="32"/>
-      <c r="AC106" s="32"/>
-      <c r="AD106" s="32"/>
-      <c r="AE106" s="32"/>
-      <c r="AF106" s="32"/>
-      <c r="AG106" s="38"/>
+      <c r="Z106" s="34"/>
+      <c r="AA106" s="34"/>
+      <c r="AB106" s="34"/>
+      <c r="AC106" s="34"/>
+      <c r="AD106" s="34"/>
+      <c r="AE106" s="34"/>
+      <c r="AF106" s="34"/>
+      <c r="AG106" s="40"/>
       <c r="AI106" s="3"/>
-      <c r="AJ106" s="18"/>
-      <c r="AK106" s="18"/>
+      <c r="AJ106" s="19"/>
+      <c r="AK106" s="19"/>
       <c r="AL106" s="11"/>
     </row>
     <row r="107" spans="1:38">
       <c r="A107" s="9">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -7939,7 +8396,7 @@
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="18"/>
+      <c r="K107" s="19"/>
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
@@ -7954,22 +8411,22 @@
       <c r="W107" s="11"/>
       <c r="X107" s="11"/>
       <c r="Y107" s="11"/>
-      <c r="Z107" s="32"/>
-      <c r="AA107" s="32"/>
-      <c r="AB107" s="32"/>
-      <c r="AC107" s="32"/>
-      <c r="AD107" s="32"/>
-      <c r="AE107" s="32"/>
-      <c r="AF107" s="32"/>
-      <c r="AG107" s="38"/>
+      <c r="Z107" s="34"/>
+      <c r="AA107" s="34"/>
+      <c r="AB107" s="34"/>
+      <c r="AC107" s="34"/>
+      <c r="AD107" s="34"/>
+      <c r="AE107" s="34"/>
+      <c r="AF107" s="34"/>
+      <c r="AG107" s="40"/>
       <c r="AI107" s="3"/>
-      <c r="AJ107" s="18"/>
-      <c r="AK107" s="18"/>
+      <c r="AJ107" s="19"/>
+      <c r="AK107" s="19"/>
       <c r="AL107" s="11"/>
     </row>
     <row r="108" spans="1:38">
       <c r="A108" s="9">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -7980,7 +8437,7 @@
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="18"/>
+      <c r="K108" s="19"/>
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
@@ -7995,102 +8452,65 @@
       <c r="W108" s="11"/>
       <c r="X108" s="11"/>
       <c r="Y108" s="11"/>
-      <c r="Z108" s="32"/>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="32"/>
-      <c r="AE108" s="32"/>
-      <c r="AF108" s="32"/>
-      <c r="AG108" s="38"/>
+      <c r="Z108" s="34"/>
+      <c r="AA108" s="34"/>
+      <c r="AB108" s="34"/>
+      <c r="AC108" s="34"/>
+      <c r="AD108" s="34"/>
+      <c r="AE108" s="34"/>
+      <c r="AF108" s="34"/>
+      <c r="AG108" s="40"/>
       <c r="AI108" s="3"/>
-      <c r="AJ108" s="18"/>
-      <c r="AK108" s="18"/>
+      <c r="AJ108" s="19"/>
+      <c r="AK108" s="19"/>
       <c r="AL108" s="11"/>
     </row>
-    <row r="109" spans="1:38">
-      <c r="A109" s="9">
-        <v>44648</v>
-      </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11"/>
-      <c r="V109" s="11"/>
-      <c r="W109" s="11"/>
-      <c r="X109" s="11"/>
-      <c r="Y109" s="11"/>
-      <c r="Z109" s="32"/>
-      <c r="AA109" s="32"/>
-      <c r="AB109" s="32"/>
-      <c r="AC109" s="32"/>
-      <c r="AD109" s="32"/>
-      <c r="AE109" s="32"/>
-      <c r="AF109" s="32"/>
-      <c r="AG109" s="38"/>
-      <c r="AI109" s="3"/>
-      <c r="AJ109" s="18"/>
-      <c r="AK109" s="18"/>
-      <c r="AL109" s="11"/>
-    </row>
-    <row r="110" spans="1:38">
-      <c r="A110" s="9">
-        <v>44649</v>
-      </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11"/>
-      <c r="U110" s="11"/>
-      <c r="V110" s="11"/>
-      <c r="W110" s="11"/>
-      <c r="X110" s="11"/>
-      <c r="Y110" s="11"/>
-      <c r="Z110" s="32"/>
-      <c r="AA110" s="32"/>
-      <c r="AB110" s="32"/>
-      <c r="AC110" s="32"/>
-      <c r="AD110" s="32"/>
-      <c r="AE110" s="32"/>
-      <c r="AF110" s="32"/>
-      <c r="AG110" s="38"/>
-      <c r="AI110" s="3"/>
-      <c r="AJ110" s="18"/>
-      <c r="AK110" s="18"/>
-      <c r="AL110" s="11"/>
-    </row>
-    <row r="111" spans="1:34">
+    <row r="109" spans="1:34">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="AH109" s="45"/>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="Y110" s="1"/>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8111,7 +8531,6 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="Y111" s="1"/>
-      <c r="AH111" s="41"/>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="1"/>
@@ -16208,50 +16627,6 @@
       <c r="S479" s="1"/>
       <c r="T479" s="1"/>
       <c r="Y479" s="1"/>
-    </row>
-    <row r="480" spans="1:25">
-      <c r="A480" s="1"/>
-      <c r="B480" s="1"/>
-      <c r="C480" s="1"/>
-      <c r="D480" s="1"/>
-      <c r="E480" s="1"/>
-      <c r="F480" s="1"/>
-      <c r="G480" s="1"/>
-      <c r="H480" s="1"/>
-      <c r="J480" s="1"/>
-      <c r="K480" s="5"/>
-      <c r="L480" s="1"/>
-      <c r="M480" s="1"/>
-      <c r="N480" s="1"/>
-      <c r="O480" s="1"/>
-      <c r="P480" s="1"/>
-      <c r="Q480" s="1"/>
-      <c r="R480" s="1"/>
-      <c r="S480" s="1"/>
-      <c r="T480" s="1"/>
-      <c r="Y480" s="1"/>
-    </row>
-    <row r="481" spans="1:25">
-      <c r="A481" s="1"/>
-      <c r="B481" s="1"/>
-      <c r="C481" s="1"/>
-      <c r="D481" s="1"/>
-      <c r="E481" s="1"/>
-      <c r="F481" s="1"/>
-      <c r="G481" s="1"/>
-      <c r="H481" s="1"/>
-      <c r="J481" s="1"/>
-      <c r="K481" s="5"/>
-      <c r="L481" s="1"/>
-      <c r="M481" s="1"/>
-      <c r="N481" s="1"/>
-      <c r="O481" s="1"/>
-      <c r="P481" s="1"/>
-      <c r="Q481" s="1"/>
-      <c r="R481" s="1"/>
-      <c r="S481" s="1"/>
-      <c r="T481" s="1"/>
-      <c r="Y481" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能-JH_00006.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能-JH_00006.xlsx
@@ -252,12 +252,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -327,6 +327,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -336,7 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,26 +358,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,16 +389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,6 +419,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -427,26 +442,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,7 +462,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,13 +519,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,31 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,31 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +645,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,73 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,21 +751,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -786,6 +765,51 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,187 +839,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,10 +999,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
@@ -1026,13 +1020,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,7 +1089,7 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1107,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,16 +1116,13 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,7 +1600,7 @@
             <v>0.560000000000002</v>
           </cell>
           <cell r="AD8">
-            <v>20.755000000001</v>
+            <v>20.7550000000001</v>
           </cell>
           <cell r="AE8">
             <v>72.07</v>
@@ -2493,20 +2484,38 @@
           <cell r="S18">
             <v>161.03402</v>
           </cell>
-        </row>
-        <row r="18">
+          <cell r="T18">
+            <v>44558</v>
+          </cell>
+          <cell r="U18">
+            <v>15.65</v>
+          </cell>
+          <cell r="V18">
+            <v>100</v>
+          </cell>
+          <cell r="W18">
+            <v>5</v>
+          </cell>
           <cell r="X18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
+            <v>1.565</v>
+          </cell>
+          <cell r="Y18">
+            <v>0.313</v>
+          </cell>
           <cell r="Z18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AC18" t="e">
-            <v>#DIV/0!</v>
+            <v>1558.122</v>
+          </cell>
+          <cell r="AA18">
+            <v>15.69</v>
+          </cell>
+          <cell r="AB18">
+            <v>15.05</v>
+          </cell>
+          <cell r="AC18">
+            <v>0.937500000000001</v>
+          </cell>
+          <cell r="AD18">
+            <v>-147.91202</v>
           </cell>
         </row>
         <row r="19">
@@ -2567,20 +2576,38 @@
           <cell r="S19">
             <v>348.06876</v>
           </cell>
-        </row>
-        <row r="19">
+          <cell r="T19">
+            <v>44558</v>
+          </cell>
+          <cell r="U19">
+            <v>15.65</v>
+          </cell>
+          <cell r="V19">
+            <v>200</v>
+          </cell>
+          <cell r="W19">
+            <v>5</v>
+          </cell>
           <cell r="X19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
+            <v>3.13</v>
+          </cell>
+          <cell r="Y19">
+            <v>0.626</v>
+          </cell>
           <cell r="Z19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AC19" t="e">
-            <v>#DIV/0!</v>
+            <v>3121.244</v>
+          </cell>
+          <cell r="AA19">
+            <v>15.69</v>
+          </cell>
+          <cell r="AB19">
+            <v>15.05</v>
+          </cell>
+          <cell r="AC19">
+            <v>0.937500000000001</v>
+          </cell>
+          <cell r="AD19">
+            <v>-321.82476</v>
           </cell>
         </row>
         <row r="20">
@@ -2953,10 +2980,10 @@
             <v>5</v>
           </cell>
           <cell r="I24">
-            <v>0.37032</v>
+            <v>0</v>
           </cell>
           <cell r="J24">
-            <v>18521.37032</v>
+            <v>18521</v>
           </cell>
           <cell r="K24">
             <v>65.65</v>
@@ -2983,17 +3010,203 @@
             <v>59.3</v>
           </cell>
           <cell r="S24">
-            <v>736.37032</v>
+            <v>736</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
             <v>JG_0000021</v>
           </cell>
+          <cell r="B25" t="str">
+            <v>JH_00031</v>
+          </cell>
+          <cell r="C25">
+            <v>600587</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>新华医疗</v>
+          </cell>
+          <cell r="E25">
+            <v>44557</v>
+          </cell>
+          <cell r="F25">
+            <v>29.57</v>
+          </cell>
+          <cell r="G25">
+            <v>600</v>
+          </cell>
+          <cell r="H25">
+            <v>5</v>
+          </cell>
+          <cell r="I25">
+            <v>0.35484</v>
+          </cell>
+          <cell r="J25">
+            <v>17747.35484</v>
+          </cell>
+          <cell r="K25">
+            <v>31.37</v>
+          </cell>
+          <cell r="L25">
+            <v>29.1</v>
+          </cell>
+          <cell r="M25">
+            <v>31.85</v>
+          </cell>
+          <cell r="N25">
+            <v>23.34</v>
+          </cell>
+          <cell r="O25">
+            <v>8.51</v>
+          </cell>
+          <cell r="P25">
+            <v>25.83</v>
+          </cell>
+          <cell r="Q25">
+            <v>0.792951541850221</v>
+          </cell>
+          <cell r="R25">
+            <v>27.05</v>
+          </cell>
+          <cell r="S25">
+            <v>1522.35484</v>
+          </cell>
+          <cell r="T25">
+            <v>44558</v>
+          </cell>
+          <cell r="U25">
+            <v>31.39</v>
+          </cell>
+          <cell r="V25">
+            <v>300</v>
+          </cell>
+          <cell r="W25">
+            <v>5</v>
+          </cell>
+          <cell r="X25">
+            <v>9.417</v>
+          </cell>
+          <cell r="Y25">
+            <v>1.8834</v>
+          </cell>
+          <cell r="Z25">
+            <v>9400.6996</v>
+          </cell>
+          <cell r="AA25">
+            <v>31.59</v>
+          </cell>
+          <cell r="AB25">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC25">
+            <v>0.873417721518988</v>
+          </cell>
+          <cell r="AD25">
+            <v>527.02218</v>
+          </cell>
         </row>
-        <row r="26">
-          <cell r="A26" t="str">
+        <row r="27">
+          <cell r="A27" t="str">
             <v>JG_0000022</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>JH_00038</v>
+          </cell>
+          <cell r="C27">
+            <v>603599</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>广信股份</v>
+          </cell>
+          <cell r="E27">
+            <v>44558</v>
+          </cell>
+          <cell r="F27">
+            <v>40.38</v>
+          </cell>
+          <cell r="G27">
+            <v>200</v>
+          </cell>
+          <cell r="H27">
+            <v>5</v>
+          </cell>
+          <cell r="I27">
+            <v>0.16152</v>
+          </cell>
+          <cell r="J27">
+            <v>8081.16152</v>
+          </cell>
+          <cell r="K27">
+            <v>41.06</v>
+          </cell>
+          <cell r="L27">
+            <v>38.43</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="P27">
+            <v>15.12</v>
+          </cell>
+          <cell r="Q27">
+            <v>0.258555133079848</v>
+          </cell>
+          <cell r="R27">
+            <v>38</v>
+          </cell>
+          <cell r="S27">
+            <v>486.161520000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>JG_0000023</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>JH_00026</v>
+          </cell>
+          <cell r="C28">
+            <v>603995</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>甬金股份</v>
+          </cell>
+          <cell r="E28">
+            <v>44558</v>
+          </cell>
+          <cell r="F28">
+            <v>55.97</v>
+          </cell>
+          <cell r="G28">
+            <v>200</v>
+          </cell>
+          <cell r="H28">
+            <v>5</v>
+          </cell>
+          <cell r="I28">
+            <v>0.22388</v>
+          </cell>
+          <cell r="J28">
+            <v>11199.22388</v>
+          </cell>
+          <cell r="K28">
+            <v>59</v>
+          </cell>
+          <cell r="L28">
+            <v>54.81</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="P28">
+            <v>21.87</v>
+          </cell>
+          <cell r="Q28">
+            <v>0.723150357995227</v>
+          </cell>
+          <cell r="R28">
+            <v>52</v>
+          </cell>
+          <cell r="S28">
+            <v>804.22388</v>
           </cell>
         </row>
       </sheetData>
@@ -3265,11 +3478,11 @@
   <dimension ref="A1:AL479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5:T5"/>
+      <selection pane="bottomRight" activeCell="AL16" sqref="AL16:AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3365,7 +3578,7 @@
         <v>7</v>
       </c>
       <c r="AK1" s="38"/>
-      <c r="AL1" s="43" t="s">
+      <c r="AL1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3608,7 +3821,7 @@
       <c r="AJ5" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AK5" s="44" t="s">
+      <c r="AK5" s="43" t="s">
         <v>48</v>
       </c>
       <c r="AL5" s="18"/>
@@ -3642,7 +3855,7 @@
         <v>85.91</v>
       </c>
       <c r="J6" s="18">
-        <f t="shared" ref="J6:J12" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J16" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="19">
@@ -3662,7 +3875,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="str">
-        <f>IF(B6&lt;G6,"是","否")</f>
+        <f t="shared" ref="U6:U16" si="1">IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V6" s="11"/>
@@ -3740,7 +3953,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="19">
-        <f t="shared" ref="K7:K12" si="1">(B7-B6)/B6</f>
+        <f t="shared" ref="K7:K16" si="2">(B7-B6)/B6</f>
         <v>-0.00705882352941182</v>
       </c>
       <c r="L7" s="11" t="s">
@@ -3757,7 +3970,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11" t="str">
-        <f>IF(B7&lt;G7,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V7" s="11"/>
@@ -3766,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="Y7" s="33">
-        <f t="shared" ref="Y7:Y16" si="2">$I7/$I$6</f>
+        <f t="shared" ref="Y7:Y16" si="3">$I7/$I$6</f>
         <v>1.02968222558491</v>
       </c>
       <c r="Z7" s="34"/>
@@ -3836,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.0396919431279622</v>
       </c>
       <c r="L8" s="11" t="s">
@@ -3853,7 +4066,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11" t="str">
-        <f>IF(B8&lt;G8,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V8" s="11"/>
@@ -3862,14 +4075,14 @@
         <v>2</v>
       </c>
       <c r="Y8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.02234896985217</v>
       </c>
       <c r="Z8" s="34"/>
       <c r="AA8" s="34"/>
       <c r="AB8" s="34"/>
       <c r="AC8" s="11">
-        <f t="shared" ref="AC8:AC16" si="3">D8-E8</f>
+        <f t="shared" ref="AC8:AC16" si="4">D8-E8</f>
         <v>1.72</v>
       </c>
       <c r="AD8" s="34"/>
@@ -3932,7 +4145,7 @@
         <v>-1</v>
       </c>
       <c r="K9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.0136752136752138</v>
       </c>
       <c r="L9" s="11" t="s">
@@ -3949,7 +4162,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11" t="str">
-        <f>IF(B9&lt;G9,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V9" s="11"/>
@@ -3958,14 +4171,14 @@
         <v>2</v>
       </c>
       <c r="Y9" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.06297287859388</v>
       </c>
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
       <c r="AC9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.529999999999998</v>
       </c>
       <c r="AD9" s="34"/>
@@ -4028,7 +4241,7 @@
         <v>-1</v>
       </c>
       <c r="K10" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.00751010976314264</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -4051,7 +4264,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11" t="str">
-        <f>IF(B10&lt;G10,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V10" s="11"/>
@@ -4060,14 +4273,14 @@
         <v>2</v>
       </c>
       <c r="Y10" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.04842276801304</v>
       </c>
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="34"/>
       <c r="AC10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.870000000000001</v>
       </c>
       <c r="AD10" s="34"/>
@@ -4130,7 +4343,7 @@
         <v>-1</v>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.059371362048894</v>
       </c>
       <c r="L11" s="11" t="s">
@@ -4147,7 +4360,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="20" t="str">
-        <f>IF(B11&lt;G11,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="V11" s="20" t="s">
@@ -4160,14 +4373,14 @@
         <v>2</v>
       </c>
       <c r="Y11" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.04050750785706</v>
       </c>
       <c r="Z11" s="34"/>
       <c r="AA11" s="34"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.959999999999997</v>
       </c>
       <c r="AD11" s="34"/>
@@ -4230,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.00680693069306927</v>
       </c>
       <c r="L12" s="11" t="s">
@@ -4247,7 +4460,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="20" t="str">
-        <f>IF(B12&lt;G12,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="V12" s="11"/>
@@ -4258,14 +4471,14 @@
         <v>2</v>
       </c>
       <c r="Y12" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97869863810965</v>
       </c>
       <c r="Z12" s="34"/>
       <c r="AA12" s="34"/>
       <c r="AB12" s="34"/>
       <c r="AC12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58</v>
       </c>
       <c r="AD12" s="34"/>
@@ -4283,7 +4496,7 @@
         <f>($AG12-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10011,7,FALSE)</f>
         <v>-338</v>
       </c>
-      <c r="AJ12" s="42">
+      <c r="AJ12" s="41">
         <f>($B12-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>-0.0564373897707231</v>
       </c>
@@ -4324,11 +4537,11 @@
         <v>83.51</v>
       </c>
       <c r="J13" s="20">
-        <f>IF(B13&gt;(D13-(D13-E13)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K13" s="22">
-        <f>(B13-B12)/B12</f>
+        <f t="shared" si="2"/>
         <v>-0.00747663551401875</v>
       </c>
       <c r="L13" s="11" t="s">
@@ -4345,7 +4558,7 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="20" t="str">
-        <f>IF(B13&lt;G13,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="V13" s="11"/>
@@ -4356,14 +4569,14 @@
         <v>2</v>
       </c>
       <c r="Y13" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.972063787684787</v>
       </c>
       <c r="Z13" s="34"/>
       <c r="AA13" s="34"/>
       <c r="AB13" s="34"/>
       <c r="AC13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.360000000000001</v>
       </c>
       <c r="AD13" s="34"/>
@@ -4381,7 +4594,7 @@
         <f>($AG13-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10012,7,FALSE)</f>
         <v>-338</v>
       </c>
-      <c r="AJ13" s="42">
+      <c r="AJ13" s="41">
         <f>($B13-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
         <v>-0.0634920634920636</v>
       </c>
@@ -4422,11 +4635,11 @@
         <v>82.89</v>
       </c>
       <c r="J14" s="18">
-        <f>IF(B14&gt;(D14-(D14-E14)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K14" s="22">
-        <f>(B14-B13)/B13</f>
+        <f t="shared" si="2"/>
         <v>0.0313873195229127</v>
       </c>
       <c r="L14" s="11" t="s">
@@ -4443,7 +4656,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="20" t="str">
-        <f>IF(B14&lt;G14,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="V14" s="11"/>
@@ -4454,14 +4667,14 @@
         <v>2</v>
       </c>
       <c r="Y14" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96484693283669</v>
       </c>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
       <c r="AB14" s="34"/>
       <c r="AC14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.659999999999998</v>
       </c>
       <c r="AD14" s="34"/>
@@ -4520,11 +4733,11 @@
         <v>85.49</v>
       </c>
       <c r="J15" s="20">
-        <f>IF(B15&gt;(D15-(D15-E15)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K15" s="22">
-        <f>(B15-B14)/B14</f>
+        <f t="shared" si="2"/>
         <v>-0.0200852099817406</v>
       </c>
       <c r="L15" s="11" t="s">
@@ -4547,7 +4760,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="20" t="str">
-        <f>IF(B15&lt;G15,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="V15" s="11"/>
@@ -4558,14 +4771,14 @@
         <v>2</v>
       </c>
       <c r="Y15" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.995111162844838</v>
       </c>
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
       <c r="AC15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.719999999999999</v>
       </c>
       <c r="AD15" s="34"/>
@@ -4624,11 +4837,11 @@
         <v>83.77</v>
       </c>
       <c r="J16" s="20">
-        <f>IF(B16&gt;(D16-(D16-E16)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K16" s="22">
-        <f>(B16-B15)/B15</f>
+        <f t="shared" si="2"/>
         <v>-0.0217391304347827</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -4645,7 +4858,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="20" t="str">
-        <f>IF(B16&lt;G16,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="V16" s="11"/>
@@ -4656,14 +4869,14 @@
         <v>2</v>
       </c>
       <c r="Y16" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.975090210685601</v>
       </c>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
       <c r="AC16" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.550000000000001</v>
       </c>
       <c r="AD16" s="34"/>
@@ -4697,18 +4910,44 @@
       <c r="A17" s="9">
         <v>44558</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="B17" s="10">
+        <v>15.35</v>
+      </c>
+      <c r="C17" s="10">
+        <v>15.65</v>
+      </c>
+      <c r="D17" s="10">
+        <v>15.69</v>
+      </c>
+      <c r="E17" s="10">
+        <v>15.05</v>
+      </c>
+      <c r="F17" s="10">
+        <v>21.88</v>
+      </c>
+      <c r="G17" s="10">
+        <v>16.29</v>
+      </c>
+      <c r="H17" s="10">
+        <v>15.96</v>
+      </c>
+      <c r="I17" s="11">
+        <v>81.95</v>
+      </c>
+      <c r="J17" s="20">
+        <f>IF(B17&gt;(D17-(D17-E17)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K17" s="22">
+        <f>(B17-B16)/B16</f>
+        <v>-0.0253968253968254</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -4716,23 +4955,50 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
+      <c r="U17" s="20" t="str">
+        <f>IF(B17&lt;G17,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
+      <c r="Y17" s="33">
+        <f>$I17/$I$6</f>
+        <v>0.953905249679898</v>
+      </c>
       <c r="Z17" s="34"/>
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
+      <c r="AC17" s="11">
+        <f>D17-E17</f>
+        <v>0.639999999999999</v>
+      </c>
       <c r="AD17" s="34"/>
       <c r="AE17" s="34"/>
       <c r="AF17" s="34"/>
-      <c r="AG17" s="40"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="11"/>
+      <c r="AG17" s="40">
+        <f>IF(AND(H17-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10014,6,FALSE)&gt;0,H17&gt;H16),H17,AG16)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH17" s="3">
+        <f>($AG17-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10016,7,FALSE)</f>
+        <v>-151</v>
+      </c>
+      <c r="AI17" s="3">
+        <f>($AG17-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10016,7,FALSE)</f>
+        <v>-338</v>
+      </c>
+      <c r="AJ17" s="41">
+        <f>($B17-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
+        <v>-0.0975896531452088</v>
+      </c>
+      <c r="AK17" s="21">
+        <f>($B17-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
+        <v>-0.107038976148924</v>
+      </c>
+      <c r="AL17" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="9">
@@ -8486,7 +8752,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="Y109" s="1"/>
-      <c r="AH109" s="45"/>
+      <c r="AH109" s="44"/>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能-JH_00006.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能-JH_00006.xlsx
@@ -3478,11 +3478,11 @@
   <dimension ref="A1:AL479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL16" sqref="AL16:AL17"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -4717,7 +4717,7 @@
       <c r="D15" s="10">
         <v>16.72</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="12">
         <v>16</v>
       </c>
       <c r="F15" s="10">
@@ -4821,7 +4821,7 @@
       <c r="D16" s="10">
         <v>16.26</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="12">
         <v>15.71</v>
       </c>
       <c r="F16" s="10">
@@ -4919,10 +4919,10 @@
       <c r="D17" s="10">
         <v>15.69</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="12">
         <v>15.05</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="12">
         <v>21.88</v>
       </c>
       <c r="G17" s="10">
